--- a/tracking/html/homepage.xlsx
+++ b/tracking/html/homepage.xlsx
@@ -439,197 +439,197 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>aria-label</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>onchange</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>http-equiv</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>tabindex</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>minlength</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>autocomplete</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>title_attr</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>aria-expanded</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>crossorigin</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>placeholder</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>maxlength</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>data_attrs</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>onclick</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>sizes</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>rel</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
         <is>
           <t>step</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>placeholder</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>aria-expanded</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>minlength</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>checked</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>form</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>alt</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>readonly</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>srcset</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>onsubmit</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>aria-hidden</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
         <is>
           <t>name</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>aria-label</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>tabindex</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>onclick</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>onsubmit</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>title_attr</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>onchange</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>autocomplete</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>srcset</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>maxlength</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>data_attrs</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>http-equiv</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>rel</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>sizes</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>readonly</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>aria-hidden</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>crossorigin</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
@@ -662,14 +662,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>width=device-width, initial-scale=1</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>viewport</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -692,15 +692,15 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>width=device-width, initial-scale=1</t>
-        </is>
-      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>viewport</t>
+        </is>
+      </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
@@ -729,14 +729,14 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>index,follow</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>robots</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -759,15 +759,15 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>index,follow</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>robots</t>
+        </is>
+      </c>
       <c r="AQ3" t="n">
         <v>8</v>
       </c>
@@ -790,11 +790,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://fonts.googleapis.com</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -810,7 +806,11 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://fonts.googleapis.com</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -820,12 +820,12 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr">
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>preconnect</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
@@ -857,11 +857,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://fonts.gstatic.com</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -877,7 +873,11 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>https://fonts.gstatic.com</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -887,12 +887,12 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>preconnect</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -924,11 +924,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://fonts.googleapis.com/css2?family=Inter:wght@300;400;600;700&amp;family=Cormorant+Garamond:wght@400;600;700&amp;display=swap</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -944,7 +940,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://fonts.googleapis.com/css2?family=Inter:wght@300;400;600;700&amp;family=Cormorant+Garamond:wght@400;600;700&amp;display=swap</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -954,12 +954,12 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>stylesheet</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
@@ -991,11 +991,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>css/homepage.css</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -1011,7 +1007,11 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>css/homepage.css</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1021,12 +1021,12 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>stylesheet</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
@@ -1062,7 +1062,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>iydd</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1077,23 +1081,19 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>gjs-t-body</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>iydd</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>gjs-t-body</t>
-        </is>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
@@ -1129,7 +1129,11 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>isu4w</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1144,23 +1148,19 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>header-navbar</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>isu4w</t>
-        </is>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>header-navbar</t>
-        </is>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1196,7 +1196,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ianog</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1211,23 +1215,19 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>navbar-container</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ianog</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>navbar-container</t>
-        </is>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>homapge.html</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ibb5h</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1279,26 +1279,26 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>homapge.html</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>gjs-t-link navbar-brand</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>ibb5h</t>
-        </is>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>gjs-t-link navbar-brand</t>
-        </is>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
@@ -1334,7 +1334,11 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>i6r9s</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1349,23 +1353,19 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>brand-mark</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>i6r9s</t>
-        </is>
-      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>brand-mark</t>
-        </is>
-      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
@@ -1401,7 +1401,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>iyksh</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1416,23 +1420,19 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>brand-name</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>iyksh</t>
-        </is>
-      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>brand-name</t>
-        </is>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
@@ -1468,7 +1468,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ixcva</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1483,23 +1487,19 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>navbar-links</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>ixcva</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>navbar-links</t>
-        </is>
-      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>html/menu.html</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>i4fmj</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1551,26 +1551,26 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>html/menu.html</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>gjs-t-link navbar-link</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>i4fmj</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>gjs-t-link navbar-link</t>
-        </is>
-      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
@@ -1606,19 +1606,15 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>i0x7e</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Menu</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>icons/home/square-menu.svg</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1629,11 +1625,15 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>navbar-menu-icon</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>i0x7e</t>
+          <t>icons/home/square-menu.svg</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr"/>
@@ -1641,14 +1641,14 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>navbar-menu-icon</t>
-        </is>
-      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Menu</t>
+        </is>
+      </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
@@ -1677,15 +1677,15 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ijq7j</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1697,26 +1697,26 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>gjs-t-link navbar-link</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>ijq7j</t>
-        </is>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>gjs-t-link navbar-link</t>
-        </is>
-      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
@@ -1752,19 +1752,15 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>i5x0l</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Reservation</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>icons/home/calendar-fold.svg</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1775,11 +1771,15 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>navbar-reservation-icon</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>i5x0l</t>
+          <t>icons/home/calendar-fold.svg</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr"/>
@@ -1787,14 +1787,14 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>navbar-reservation-icon</t>
-        </is>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Reservation</t>
+        </is>
+      </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
@@ -1823,15 +1823,15 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>./cart-checkout.html</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>idlu8</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1843,26 +1843,26 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>./cart-checkout.html</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>gjs-t-link navbar-link</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>idlu8</t>
-        </is>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>gjs-t-link navbar-link</t>
-        </is>
-      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
@@ -1898,19 +1898,15 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>iaze2</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Cart</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>icons/home/shopping-cart.svg</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1921,11 +1917,15 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>navbar-cart-icon</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>iaze2</t>
+          <t>icons/home/shopping-cart.svg</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
@@ -1933,14 +1933,14 @@
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>navbar-cart-icon</t>
-        </is>
-      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Cart</t>
+        </is>
+      </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
@@ -1969,15 +1969,15 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>./order-confirmation-status.html</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ig3kh</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1989,26 +1989,26 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>./order-confirmation-status.html</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>gjs-t-link navbar-link</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>ig3kh</t>
-        </is>
-      </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>gjs-t-link navbar-link</t>
-        </is>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
@@ -2044,19 +2044,15 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>i3f4o</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Order Status</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>icons/home/package.svg</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -2067,11 +2063,15 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>navbar-order-status-icon</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>i3f4o</t>
+          <t>icons/home/package.svg</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr"/>
@@ -2079,14 +2079,14 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>navbar-order-status-icon</t>
-        </is>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Order Status</t>
+        </is>
+      </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
@@ -2119,7 +2119,11 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>icxao</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2134,23 +2138,19 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>hero-section</t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>icxao</t>
-        </is>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>hero-section</t>
-        </is>
-      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
@@ -2186,7 +2186,11 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>i39hl</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -2201,23 +2205,19 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>hero-wrapper</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>i39hl</t>
-        </is>
-      </c>
+      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>hero-wrapper</t>
-        </is>
-      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
@@ -2253,7 +2253,11 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ie9pe</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -2268,23 +2272,19 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>hero-text</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>ie9pe</t>
-        </is>
-      </c>
+      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>hero-text</t>
-        </is>
-      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
@@ -2320,7 +2320,11 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>inusu</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2335,23 +2339,19 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>gjs-t-h1 hero-title</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>inusu</t>
-        </is>
-      </c>
+      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>gjs-t-h1 hero-title</t>
-        </is>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
@@ -2387,7 +2387,11 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>iawfb</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2402,23 +2406,19 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>hero-subtitle</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>iawfb</t>
-        </is>
-      </c>
+      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>hero-subtitle</t>
-        </is>
-      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
@@ -2454,7 +2454,11 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ir21b</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2469,23 +2473,19 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>branch-selector-group</t>
+        </is>
+      </c>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>ir21b</t>
-        </is>
-      </c>
+      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>branch-selector-group</t>
-        </is>
-      </c>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
@@ -2521,7 +2521,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>iik1u</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2536,23 +2540,19 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>branch-label</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>iik1u</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>branch-label</t>
-        </is>
-      </c>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -2588,7 +2588,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>i7rxq</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2603,23 +2607,19 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>branch-select-wrapper</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>i7rxq</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>branch-select-wrapper</t>
-        </is>
-      </c>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
@@ -2655,7 +2655,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>branch-select</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2664,33 +2668,25 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>gjs-t-border branch-select</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>branch-select</t>
-        </is>
-      </c>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>gjs-t-border branch-select</t>
-        </is>
-      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
@@ -2698,7 +2694,11 @@
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="n">
         <v>50</v>
@@ -2726,16 +2726,20 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ig0j2</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>city-center</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>city-center</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2747,11 +2751,7 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>ig0j2</t>
-        </is>
-      </c>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -2793,16 +2793,20 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>itg5n</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>riverside</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>riverside</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2814,11 +2818,7 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>itg5n</t>
-        </is>
-      </c>
+      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
@@ -2860,16 +2860,20 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>i0kkg</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>north-hills</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>north-hills</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2881,11 +2885,7 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>i0kkg</t>
-        </is>
-      </c>
+      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
@@ -2927,19 +2927,15 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ikgah</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Expand</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>icons/home/chevron-down.svg</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2950,11 +2946,15 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>select-chevron-icon</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>ikgah</t>
+          <t>icons/home/chevron-down.svg</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -2962,14 +2962,14 @@
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>select-chevron-icon</t>
-        </is>
-      </c>
+      <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>Expand</t>
+        </is>
+      </c>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
@@ -3002,7 +3002,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>iop6f</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3017,23 +3021,19 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>hero-ctas</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>iop6f</t>
-        </is>
-      </c>
+      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>hero-ctas</t>
-        </is>
-      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
@@ -3065,15 +3065,15 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>i1hva</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -3085,26 +3085,26 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>gjs-t-button cta-order-now</t>
+        </is>
+      </c>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>i1hva</t>
-        </is>
-      </c>
+      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>gjs-t-button cta-order-now</t>
-        </is>
-      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
@@ -3136,15 +3136,15 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ihr6y</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -3156,26 +3156,26 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>cta-make-reservation</t>
+        </is>
+      </c>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>ihr6y</t>
-        </is>
-      </c>
+      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>cta-make-reservation</t>
-        </is>
-      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
@@ -3211,7 +3211,11 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ic9zk</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -3226,23 +3230,19 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>quick-links</t>
+        </is>
+      </c>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>ic9zk</t>
-        </is>
-      </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>quick-links</t>
-        </is>
-      </c>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
@@ -3274,15 +3274,15 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>iplw6</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -3294,26 +3294,26 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>gjs-t-link quick-link</t>
+        </is>
+      </c>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>iplw6</t>
-        </is>
-      </c>
+      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>gjs-t-link quick-link</t>
-        </is>
-      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -3345,15 +3345,15 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>iridb</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -3365,26 +3365,26 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>gjs-t-link quick-link</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>iridb</t>
-        </is>
-      </c>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>gjs-t-link quick-link</t>
-        </is>
-      </c>
+      <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
@@ -3416,15 +3416,15 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>##</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ikezm</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3436,26 +3436,26 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>gjs-t-link quick-link</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>ikezm</t>
-        </is>
-      </c>
+      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>gjs-t-link quick-link</t>
-        </is>
-      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
@@ -3491,7 +3491,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>iuwtx</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -3506,23 +3510,19 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>hero-image-wrapper</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>iuwtx</t>
-        </is>
-      </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>hero-image-wrapper</t>
-        </is>
-      </c>
+      <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
@@ -3558,7 +3558,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>iq3uu</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3573,23 +3577,19 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>hero-image-container</t>
+        </is>
+      </c>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>iq3uu</t>
-        </is>
-      </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>hero-image-container</t>
-        </is>
-      </c>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
@@ -3625,19 +3625,15 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ia0hp</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Maison di Sapori dining room</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>images/home/welcome-image.jpg</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -3648,11 +3644,15 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>hero-image</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>ia0hp</t>
+          <t>images/home/welcome-image.jpg</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr"/>
@@ -3660,14 +3660,14 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>hero-image</t>
-        </is>
-      </c>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>Maison di Sapori dining room</t>
+        </is>
+      </c>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
@@ -3700,7 +3700,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>izp9g</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3715,23 +3719,19 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>hero-badge</t>
+        </is>
+      </c>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>izp9g</t>
-        </is>
-      </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>hero-badge</t>
-        </is>
-      </c>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
@@ -3767,19 +3767,15 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ia4y7</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Star</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>icons/home/sparkles.svg</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -3790,11 +3786,15 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>badge-icon</t>
+        </is>
+      </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>ia4y7</t>
+          <t>icons/home/sparkles.svg</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr"/>
@@ -3802,14 +3802,14 @@
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>badge-icon</t>
-        </is>
-      </c>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
@@ -3842,7 +3842,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>irzsk</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3857,23 +3861,19 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>badge-text</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>irzsk</t>
-        </is>
-      </c>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>badge-text</t>
-        </is>
-      </c>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
@@ -3909,7 +3909,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>iv6k1</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3924,23 +3928,19 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>intro-section</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>iv6k1</t>
-        </is>
-      </c>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>intro-section</t>
-        </is>
-      </c>
+      <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
@@ -3976,7 +3976,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>i69c2</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3991,23 +3995,19 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>intro-container</t>
+        </is>
+      </c>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>i69c2</t>
-        </is>
-      </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>intro-container</t>
-        </is>
-      </c>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
@@ -4043,7 +4043,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>iia3p</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -4058,23 +4062,19 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>intro-card</t>
+        </is>
+      </c>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>iia3p</t>
-        </is>
-      </c>
+      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>intro-card</t>
-        </is>
-      </c>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
@@ -4110,7 +4110,11 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ilpxk</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -4125,23 +4129,19 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>gjs-t-h2 intro-heading</t>
+        </is>
+      </c>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>ilpxk</t>
-        </is>
-      </c>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>gjs-t-h2 intro-heading</t>
-        </is>
-      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
@@ -4177,7 +4177,11 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>id8rc</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -4192,23 +4196,19 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>intro-body</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>id8rc</t>
-        </is>
-      </c>
+      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>intro-body</t>
-        </is>
-      </c>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
@@ -4244,7 +4244,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>iothm</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -4259,23 +4263,19 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>featured-section</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>iothm</t>
-        </is>
-      </c>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>featured-section</t>
-        </is>
-      </c>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
@@ -4311,7 +4311,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>i0cw6</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -4326,23 +4330,19 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>featured-container</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>i0cw6</t>
-        </is>
-      </c>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>featured-container</t>
-        </is>
-      </c>
+      <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
@@ -4378,7 +4378,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>iqshs</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -4393,23 +4397,19 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>featured-header</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>iqshs</t>
-        </is>
-      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>featured-header</t>
-        </is>
-      </c>
+      <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
@@ -4445,7 +4445,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ib325</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -4460,23 +4464,19 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>gjs-t-h2</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>ib325</t>
-        </is>
-      </c>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>gjs-t-h2</t>
-        </is>
-      </c>
+      <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
@@ -4508,15 +4508,15 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>i77yn</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -4528,26 +4528,26 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>gjs-t-link featured-link</t>
+        </is>
+      </c>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>i77yn</t>
-        </is>
-      </c>
+      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>gjs-t-link featured-link</t>
-        </is>
-      </c>
+      <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
@@ -4583,19 +4583,15 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ius2r</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>arrow</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>icons/home/arrow-right.svg</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -4606,11 +4602,15 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>featured-arrow-icon</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>ius2r</t>
+          <t>icons/home/arrow-right.svg</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr"/>
@@ -4618,14 +4618,14 @@
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>featured-arrow-icon</t>
-        </is>
-      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>arrow</t>
+        </is>
+      </c>
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
@@ -4658,7 +4658,11 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>i8ovu</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -4673,23 +4677,19 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>featured-grid</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>i8ovu</t>
-        </is>
-      </c>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>featured-grid</t>
-        </is>
-      </c>
+      <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
@@ -4725,7 +4725,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>i5ium</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -4740,23 +4744,19 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>feature-card</t>
+        </is>
+      </c>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>i5ium</t>
-        </is>
-      </c>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>feature-card</t>
-        </is>
-      </c>
+      <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
@@ -4792,19 +4792,15 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>iaa9h</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Chef’s Tagliatelle</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>images/home/menu-introduce-image.jpg</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4815,11 +4811,15 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>feature-image</t>
+        </is>
+      </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>iaa9h</t>
+          <t>images/home/menu-introduce-image.jpg</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr"/>
@@ -4827,14 +4827,14 @@
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>Chef’s Tagliatelle</t>
+        </is>
+      </c>
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
@@ -4867,7 +4867,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>il98q</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -4882,23 +4886,19 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>feature-content</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>il98q</t>
-        </is>
-      </c>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>feature-content</t>
-        </is>
-      </c>
+      <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
@@ -4934,7 +4934,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ioo2g</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -4949,23 +4953,19 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>feature-title</t>
+        </is>
+      </c>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>ioo2g</t>
-        </is>
-      </c>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>feature-title</t>
-        </is>
-      </c>
+      <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
@@ -5001,7 +5001,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>iztv7</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -5016,23 +5020,19 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>feature-text</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>iztv7</t>
-        </is>
-      </c>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr">
-        <is>
-          <t>feature-text</t>
-        </is>
-      </c>
+      <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
@@ -5068,7 +5068,11 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>iysb1</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -5083,23 +5087,19 @@
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>feature-actions</t>
+        </is>
+      </c>
       <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>iysb1</t>
-        </is>
-      </c>
+      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr">
-        <is>
-          <t>feature-actions</t>
-        </is>
-      </c>
+      <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
@@ -5131,15 +5131,15 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ij01z</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -5151,26 +5151,26 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>ij01z</t>
-        </is>
-      </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
@@ -5206,7 +5206,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ixc6w</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -5221,23 +5225,19 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>feature-divider</t>
+        </is>
+      </c>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>ixc6w</t>
-        </is>
-      </c>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>feature-divider</t>
-        </is>
-      </c>
+      <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
@@ -5269,15 +5269,15 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>itpjb</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -5289,26 +5289,26 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>itpjb</t>
-        </is>
-      </c>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
@@ -5344,7 +5344,11 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>i79y7</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -5359,23 +5363,19 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>feature-card</t>
+        </is>
+      </c>
       <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>i79y7</t>
-        </is>
-      </c>
+      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>feature-card</t>
-        </is>
-      </c>
+      <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
@@ -5411,19 +5411,15 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>i4755</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Wood-Fired Margherita</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>images/home/pizza.jpg</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -5434,11 +5430,15 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>feature-image</t>
+        </is>
+      </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>i4755</t>
+          <t>images/home/pizza.jpg</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr"/>
@@ -5446,14 +5446,14 @@
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>Wood-Fired Margherita</t>
+        </is>
+      </c>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
@@ -5486,7 +5486,11 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>iwc7i</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -5501,23 +5505,19 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>feature-content</t>
+        </is>
+      </c>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>iwc7i</t>
-        </is>
-      </c>
+      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr">
-        <is>
-          <t>feature-content</t>
-        </is>
-      </c>
+      <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
@@ -5553,7 +5553,11 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>i41ev</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -5568,23 +5572,19 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>feature-title</t>
+        </is>
+      </c>
       <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>i41ev</t>
-        </is>
-      </c>
+      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr">
-        <is>
-          <t>feature-title</t>
-        </is>
-      </c>
+      <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
@@ -5620,7 +5620,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>iextb5</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -5635,23 +5639,19 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>feature-text</t>
+        </is>
+      </c>
       <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>iextb5</t>
-        </is>
-      </c>
+      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr">
-        <is>
-          <t>feature-text</t>
-        </is>
-      </c>
+      <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
@@ -5687,7 +5687,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>imfxl1</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -5702,23 +5706,19 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>feature-actions</t>
+        </is>
+      </c>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>imfxl1</t>
-        </is>
-      </c>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr">
-        <is>
-          <t>feature-actions</t>
-        </is>
-      </c>
+      <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
@@ -5750,15 +5750,15 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>i1xpwo</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -5770,26 +5770,26 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>i1xpwo</t>
-        </is>
-      </c>
+      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
@@ -5825,7 +5825,11 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>i1a7ld</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5840,23 +5844,19 @@
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>feature-divider</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>i1a7ld</t>
-        </is>
-      </c>
+      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr">
-        <is>
-          <t>feature-divider</t>
-        </is>
-      </c>
+      <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
@@ -5888,15 +5888,15 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>i7lb4c</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5908,26 +5908,26 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>i7lb4c</t>
-        </is>
-      </c>
+      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
@@ -5963,7 +5963,11 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>io1q4z</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5978,23 +5982,19 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>feature-card</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>io1q4z</t>
-        </is>
-      </c>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>feature-card</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
@@ -6030,19 +6030,15 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ie4n0t</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>House Tiramisu</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>images/home/abstract-tiramisu.jpg</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
@@ -6053,11 +6049,15 @@
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>feature-image</t>
+        </is>
+      </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>ie4n0t</t>
+          <t>images/home/abstract-tiramisu.jpg</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr"/>
@@ -6065,14 +6065,14 @@
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>House Tiramisu</t>
+        </is>
+      </c>
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
@@ -6105,7 +6105,11 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>i7fy9z</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -6120,23 +6124,19 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>feature-content</t>
+        </is>
+      </c>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>i7fy9z</t>
-        </is>
-      </c>
+      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr">
-        <is>
-          <t>feature-content</t>
-        </is>
-      </c>
+      <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
@@ -6172,7 +6172,11 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>i98iyf</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -6187,23 +6191,19 @@
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>feature-title</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>i98iyf</t>
-        </is>
-      </c>
+      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr">
-        <is>
-          <t>feature-title</t>
-        </is>
-      </c>
+      <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
@@ -6239,7 +6239,11 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>izbh7h</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -6254,23 +6258,19 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>feature-text</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>izbh7h</t>
-        </is>
-      </c>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr">
-        <is>
-          <t>feature-text</t>
-        </is>
-      </c>
+      <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
@@ -6306,7 +6306,11 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>idgqcb</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -6321,23 +6325,19 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>feature-actions</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr">
-        <is>
-          <t>idgqcb</t>
-        </is>
-      </c>
+      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr">
-        <is>
-          <t>feature-actions</t>
-        </is>
-      </c>
+      <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
@@ -6369,15 +6369,15 @@
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>io6thu</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -6389,26 +6389,26 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr">
-        <is>
-          <t>io6thu</t>
-        </is>
-      </c>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
@@ -6444,7 +6444,11 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>idhpjz</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -6459,23 +6463,19 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>feature-divider</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr">
-        <is>
-          <t>idhpjz</t>
-        </is>
-      </c>
+      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr">
-        <is>
-          <t>feature-divider</t>
-        </is>
-      </c>
+      <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
@@ -6507,15 +6507,15 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>i9zjbi</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -6527,26 +6527,26 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>gjs-t-link feature-action-link</t>
+        </is>
+      </c>
       <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>i9zjbi</t>
-        </is>
-      </c>
+      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr">
-        <is>
-          <t>gjs-t-link feature-action-link</t>
-        </is>
-      </c>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
@@ -6582,7 +6582,11 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>igbk4h</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -6597,23 +6601,19 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>loyalty-banner</t>
+        </is>
+      </c>
       <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>igbk4h</t>
-        </is>
-      </c>
+      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr">
-        <is>
-          <t>loyalty-banner</t>
-        </is>
-      </c>
+      <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
@@ -6649,7 +6649,11 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>iga1k6</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -6664,23 +6668,19 @@
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>loyalty-text-group</t>
+        </is>
+      </c>
       <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr">
-        <is>
-          <t>iga1k6</t>
-        </is>
-      </c>
+      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr">
-        <is>
-          <t>loyalty-text-group</t>
-        </is>
-      </c>
+      <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
@@ -6716,19 +6716,15 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ihkle2</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Gift</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>icons/home/gift.svg</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -6739,11 +6735,15 @@
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>loyalty-icon</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>ihkle2</t>
+          <t>icons/home/gift.svg</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr"/>
@@ -6751,14 +6751,14 @@
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr">
-        <is>
-          <t>loyalty-icon</t>
-        </is>
-      </c>
+      <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>Gift</t>
+        </is>
+      </c>
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
@@ -6791,7 +6791,11 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>incjcc</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -6806,23 +6810,19 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>loyalty-texts</t>
+        </is>
+      </c>
       <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>incjcc</t>
-        </is>
-      </c>
+      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr">
-        <is>
-          <t>loyalty-texts</t>
-        </is>
-      </c>
+      <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
@@ -6858,7 +6858,11 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>igkdku</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -6873,23 +6877,19 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>loyalty-title</t>
+        </is>
+      </c>
       <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t>igkdku</t>
-        </is>
-      </c>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr">
-        <is>
-          <t>loyalty-title</t>
-        </is>
-      </c>
+      <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
@@ -6925,7 +6925,11 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>i4ucr9</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -6940,23 +6944,19 @@
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>loyalty-subtitle</t>
+        </is>
+      </c>
       <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t>i4ucr9</t>
-        </is>
-      </c>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr">
-        <is>
-          <t>loyalty-subtitle</t>
-        </is>
-      </c>
+      <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
@@ -6992,7 +6992,11 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>i7lsin</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -7007,23 +7011,19 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>loyalty-actions</t>
+        </is>
+      </c>
       <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr">
-        <is>
-          <t>i7lsin</t>
-        </is>
-      </c>
+      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr">
-        <is>
-          <t>loyalty-actions</t>
-        </is>
-      </c>
+      <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
       <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
@@ -7055,15 +7055,15 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>#loyalty</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>i6kh14</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -7075,26 +7075,26 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>#loyalty</t>
+        </is>
+      </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>loyalty-learn-more</t>
+        </is>
+      </c>
       <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr">
-        <is>
-          <t>i6kh14</t>
-        </is>
-      </c>
+      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr">
-        <is>
-          <t>loyalty-learn-more</t>
-        </is>
-      </c>
+      <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
@@ -7126,15 +7126,15 @@
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>#loyalty</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>iawl5q</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -7146,26 +7146,26 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>#loyalty</t>
+        </is>
+      </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>gjs-t-button loyalty-sign-up</t>
+        </is>
+      </c>
       <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr">
-        <is>
-          <t>iawl5q</t>
-        </is>
-      </c>
+      <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr">
-        <is>
-          <t>gjs-t-button loyalty-sign-up</t>
-        </is>
-      </c>
+      <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
@@ -7201,7 +7201,11 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -7216,23 +7220,19 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>contact-preview-section</t>
+        </is>
+      </c>
       <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
+      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr">
-        <is>
-          <t>contact-preview-section</t>
-        </is>
-      </c>
+      <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
@@ -7268,7 +7268,11 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>i9emop</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -7283,23 +7287,19 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>contact-container</t>
+        </is>
+      </c>
       <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t>i9emop</t>
-        </is>
-      </c>
+      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr">
-        <is>
-          <t>contact-container</t>
-        </is>
-      </c>
+      <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr"/>
@@ -7335,7 +7335,11 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>i2l2av</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -7350,23 +7354,19 @@
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>contact-card</t>
+        </is>
+      </c>
       <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t>i2l2av</t>
-        </is>
-      </c>
+      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr">
-        <is>
-          <t>contact-card</t>
-        </is>
-      </c>
+      <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
@@ -7402,7 +7402,11 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>i30nth</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -7417,23 +7421,19 @@
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>contact-block</t>
+        </is>
+      </c>
       <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr">
-        <is>
-          <t>i30nth</t>
-        </is>
-      </c>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr">
-        <is>
-          <t>contact-block</t>
-        </is>
-      </c>
+      <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr"/>
@@ -7469,7 +7469,11 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>i1rzdi</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -7484,23 +7488,19 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>contact-title</t>
+        </is>
+      </c>
       <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr">
-        <is>
-          <t>i1rzdi</t>
-        </is>
-      </c>
+      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr">
-        <is>
-          <t>contact-title</t>
-        </is>
-      </c>
+      <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr"/>
       <c r="AI101" t="inlineStr"/>
       <c r="AJ101" t="inlineStr"/>
@@ -7536,7 +7536,11 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ixntar</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -7551,23 +7555,19 @@
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>contact-text</t>
+        </is>
+      </c>
       <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr">
-        <is>
-          <t>ixntar</t>
-        </is>
-      </c>
+      <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr">
-        <is>
-          <t>contact-text</t>
-        </is>
-      </c>
+      <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
       <c r="AJ102" t="inlineStr"/>
@@ -7599,15 +7599,15 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>#map</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ilphxq</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -7619,26 +7619,26 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>#map</t>
+        </is>
+      </c>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>gjs-t-link contact-link</t>
+        </is>
+      </c>
       <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>ilphxq</t>
-        </is>
-      </c>
+      <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr">
-        <is>
-          <t>gjs-t-link contact-link</t>
-        </is>
-      </c>
+      <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr"/>
@@ -7674,7 +7674,11 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ibpfd8</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -7689,23 +7693,19 @@
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>contact-block</t>
+        </is>
+      </c>
       <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr">
-        <is>
-          <t>ibpfd8</t>
-        </is>
-      </c>
+      <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr">
-        <is>
-          <t>contact-block</t>
-        </is>
-      </c>
+      <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
       <c r="AI104" t="inlineStr"/>
       <c r="AJ104" t="inlineStr"/>
@@ -7741,7 +7741,11 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>i7bwfw</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -7756,23 +7760,19 @@
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>contact-title</t>
+        </is>
+      </c>
       <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr">
-        <is>
-          <t>i7bwfw</t>
-        </is>
-      </c>
+      <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr">
-        <is>
-          <t>contact-title</t>
-        </is>
-      </c>
+      <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr"/>
@@ -7808,7 +7808,11 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ihnd3d</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -7823,23 +7827,19 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>contact-text</t>
+        </is>
+      </c>
       <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr">
-        <is>
-          <t>ihnd3d</t>
-        </is>
-      </c>
+      <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
       <c r="AD106" t="inlineStr"/>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr">
-        <is>
-          <t>contact-text</t>
-        </is>
-      </c>
+      <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
       <c r="AI106" t="inlineStr"/>
       <c r="AJ106" t="inlineStr"/>
@@ -7875,7 +7875,11 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>idna99</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -7890,23 +7894,19 @@
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>contact-block</t>
+        </is>
+      </c>
       <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr">
-        <is>
-          <t>idna99</t>
-        </is>
-      </c>
+      <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr">
-        <is>
-          <t>contact-block</t>
-        </is>
-      </c>
+      <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
       <c r="AJ107" t="inlineStr"/>
@@ -7942,7 +7942,11 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ih8zp3</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7957,23 +7961,19 @@
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>contact-title</t>
+        </is>
+      </c>
       <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr">
-        <is>
-          <t>ih8zp3</t>
-        </is>
-      </c>
+      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
       <c r="AD108" t="inlineStr"/>
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr"/>
-      <c r="AG108" t="inlineStr">
-        <is>
-          <t>contact-title</t>
-        </is>
-      </c>
+      <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
       <c r="AJ108" t="inlineStr"/>
@@ -8009,7 +8009,11 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>iw4zis</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -8024,23 +8028,19 @@
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>contact-text</t>
+        </is>
+      </c>
       <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr">
-        <is>
-          <t>iw4zis</t>
-        </is>
-      </c>
+      <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr">
-        <is>
-          <t>contact-text</t>
-        </is>
-      </c>
+      <c r="AG109" t="inlineStr"/>
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
       <c r="AJ109" t="inlineStr"/>
@@ -8076,7 +8076,11 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ink2x9</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -8091,23 +8095,19 @@
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>contact-actions</t>
+        </is>
+      </c>
       <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr">
-        <is>
-          <t>ink2x9</t>
-        </is>
-      </c>
+      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr">
-        <is>
-          <t>contact-actions</t>
-        </is>
-      </c>
+      <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
@@ -8139,15 +8139,15 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ifqid7</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -8159,26 +8159,26 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>gjs-t-button contact-action</t>
+        </is>
+      </c>
       <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr">
-        <is>
-          <t>ifqid7</t>
-        </is>
-      </c>
+      <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
       <c r="AD111" t="inlineStr"/>
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr">
-        <is>
-          <t>gjs-t-button contact-action</t>
-        </is>
-      </c>
+      <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
@@ -8210,15 +8210,15 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>invxbk</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -8230,26 +8230,26 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>contact-action</t>
+        </is>
+      </c>
       <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr">
-        <is>
-          <t>invxbk</t>
-        </is>
-      </c>
+      <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr">
-        <is>
-          <t>contact-action</t>
-        </is>
-      </c>
+      <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr"/>
@@ -8285,7 +8285,11 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>i04oeo</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -8300,23 +8304,19 @@
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>branch-highlights-section</t>
+        </is>
+      </c>
       <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>i04oeo</t>
-        </is>
-      </c>
+      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
       <c r="AD113" t="inlineStr"/>
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr">
-        <is>
-          <t>branch-highlights-section</t>
-        </is>
-      </c>
+      <c r="AG113" t="inlineStr"/>
       <c r="AH113" t="inlineStr"/>
       <c r="AI113" t="inlineStr"/>
       <c r="AJ113" t="inlineStr"/>
@@ -8352,7 +8352,11 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>it0gjl</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -8367,23 +8371,19 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>branch-highlights-container</t>
+        </is>
+      </c>
       <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr">
-        <is>
-          <t>it0gjl</t>
-        </is>
-      </c>
+      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
       <c r="AD114" t="inlineStr"/>
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr">
-        <is>
-          <t>branch-highlights-container</t>
-        </is>
-      </c>
+      <c r="AG114" t="inlineStr"/>
       <c r="AH114" t="inlineStr"/>
       <c r="AI114" t="inlineStr"/>
       <c r="AJ114" t="inlineStr"/>
@@ -8419,7 +8419,11 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>io5hrf</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -8434,23 +8438,19 @@
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>gjs-t-h2 branch-highlights-title</t>
+        </is>
+      </c>
       <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr">
-        <is>
-          <t>io5hrf</t>
-        </is>
-      </c>
+      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
       <c r="AD115" t="inlineStr"/>
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr">
-        <is>
-          <t>gjs-t-h2 branch-highlights-title</t>
-        </is>
-      </c>
+      <c r="AG115" t="inlineStr"/>
       <c r="AH115" t="inlineStr"/>
       <c r="AI115" t="inlineStr"/>
       <c r="AJ115" t="inlineStr"/>
@@ -8486,7 +8486,11 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>i128bi</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -8501,23 +8505,19 @@
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>branch-cards-grid</t>
+        </is>
+      </c>
       <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr">
-        <is>
-          <t>i128bi</t>
-        </is>
-      </c>
+      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
       <c r="AD116" t="inlineStr"/>
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="inlineStr">
-        <is>
-          <t>branch-cards-grid</t>
-        </is>
-      </c>
+      <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr"/>
       <c r="AI116" t="inlineStr"/>
       <c r="AJ116" t="inlineStr"/>
@@ -8553,7 +8553,11 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ivh2qv</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -8568,23 +8572,19 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>branch-card</t>
+        </is>
+      </c>
       <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>ivh2qv</t>
-        </is>
-      </c>
+      <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr">
-        <is>
-          <t>branch-card</t>
-        </is>
-      </c>
+      <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="inlineStr"/>
       <c r="AI117" t="inlineStr"/>
       <c r="AJ117" t="inlineStr"/>
@@ -8620,19 +8620,15 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ipr7uk</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>City Center Branch</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>images/home/abstract-branch.jpg</t>
-        </is>
-      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
@@ -8643,11 +8639,15 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>branch-image</t>
+        </is>
+      </c>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>ipr7uk</t>
+          <t>images/home/abstract-branch.jpg</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr"/>
@@ -8655,14 +8655,14 @@
       <c r="AD118" t="inlineStr"/>
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>City Center Branch</t>
+        </is>
+      </c>
       <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="inlineStr"/>
@@ -8695,7 +8695,11 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ij1cg2</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
@@ -8710,23 +8714,19 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>branch-content</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr">
-        <is>
-          <t>ij1cg2</t>
-        </is>
-      </c>
+      <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
       <c r="AD119" t="inlineStr"/>
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr"/>
-      <c r="AG119" t="inlineStr">
-        <is>
-          <t>branch-content</t>
-        </is>
-      </c>
+      <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
       <c r="AI119" t="inlineStr"/>
       <c r="AJ119" t="inlineStr"/>
@@ -8762,7 +8762,11 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>i4hipg</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
@@ -8777,23 +8781,19 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>branch-header</t>
+        </is>
+      </c>
       <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr">
-        <is>
-          <t>i4hipg</t>
-        </is>
-      </c>
+      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
       <c r="AD120" t="inlineStr"/>
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr"/>
-      <c r="AG120" t="inlineStr">
-        <is>
-          <t>branch-header</t>
-        </is>
-      </c>
+      <c r="AG120" t="inlineStr"/>
       <c r="AH120" t="inlineStr"/>
       <c r="AI120" t="inlineStr"/>
       <c r="AJ120" t="inlineStr"/>
@@ -8829,7 +8829,11 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>i4coap</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -8844,23 +8848,19 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>branch-name</t>
+        </is>
+      </c>
       <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr">
-        <is>
-          <t>i4coap</t>
-        </is>
-      </c>
+      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
       <c r="AD121" t="inlineStr"/>
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr"/>
-      <c r="AG121" t="inlineStr">
-        <is>
-          <t>branch-name</t>
-        </is>
-      </c>
+      <c r="AG121" t="inlineStr"/>
       <c r="AH121" t="inlineStr"/>
       <c r="AI121" t="inlineStr"/>
       <c r="AJ121" t="inlineStr"/>
@@ -8896,7 +8896,11 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>it5nxp</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -8911,23 +8915,19 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>branch-tag</t>
+        </is>
+      </c>
       <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr">
-        <is>
-          <t>it5nxp</t>
-        </is>
-      </c>
+      <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
-      <c r="AG122" t="inlineStr">
-        <is>
-          <t>branch-tag</t>
-        </is>
-      </c>
+      <c r="AG122" t="inlineStr"/>
       <c r="AH122" t="inlineStr"/>
       <c r="AI122" t="inlineStr"/>
       <c r="AJ122" t="inlineStr"/>
@@ -8963,7 +8963,11 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ifoepi</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -8978,23 +8982,19 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>branch-description</t>
+        </is>
+      </c>
       <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr">
-        <is>
-          <t>ifoepi</t>
-        </is>
-      </c>
+      <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
       <c r="AD123" t="inlineStr"/>
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr"/>
-      <c r="AG123" t="inlineStr">
-        <is>
-          <t>branch-description</t>
-        </is>
-      </c>
+      <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="inlineStr"/>
       <c r="AI123" t="inlineStr"/>
       <c r="AJ123" t="inlineStr"/>
@@ -9030,7 +9030,11 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>i7fngg</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -9045,23 +9049,19 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>branch-actions</t>
+        </is>
+      </c>
       <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr">
-        <is>
-          <t>i7fngg</t>
-        </is>
-      </c>
+      <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
       <c r="AD124" t="inlineStr"/>
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr"/>
-      <c r="AG124" t="inlineStr">
-        <is>
-          <t>branch-actions</t>
-        </is>
-      </c>
+      <c r="AG124" t="inlineStr"/>
       <c r="AH124" t="inlineStr"/>
       <c r="AI124" t="inlineStr"/>
       <c r="AJ124" t="inlineStr"/>
@@ -9093,15 +9093,15 @@
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ic7s6q</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -9113,26 +9113,26 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-order-link</t>
+        </is>
+      </c>
       <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr">
-        <is>
-          <t>ic7s6q</t>
-        </is>
-      </c>
+      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
       <c r="AD125" t="inlineStr"/>
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr"/>
-      <c r="AG125" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-order-link</t>
-        </is>
-      </c>
+      <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
       <c r="AI125" t="inlineStr"/>
       <c r="AJ125" t="inlineStr"/>
@@ -9168,7 +9168,11 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ied9oa</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
@@ -9183,23 +9187,19 @@
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>branch-divider</t>
+        </is>
+      </c>
       <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr">
-        <is>
-          <t>ied9oa</t>
-        </is>
-      </c>
+      <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
       <c r="AD126" t="inlineStr"/>
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr"/>
-      <c r="AG126" t="inlineStr">
-        <is>
-          <t>branch-divider</t>
-        </is>
-      </c>
+      <c r="AG126" t="inlineStr"/>
       <c r="AH126" t="inlineStr"/>
       <c r="AI126" t="inlineStr"/>
       <c r="AJ126" t="inlineStr"/>
@@ -9231,15 +9231,15 @@
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>iszcog</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -9251,26 +9251,26 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-reserve-link</t>
+        </is>
+      </c>
       <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr">
-        <is>
-          <t>iszcog</t>
-        </is>
-      </c>
+      <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr"/>
-      <c r="AG127" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-reserve-link</t>
-        </is>
-      </c>
+      <c r="AG127" t="inlineStr"/>
       <c r="AH127" t="inlineStr"/>
       <c r="AI127" t="inlineStr"/>
       <c r="AJ127" t="inlineStr"/>
@@ -9306,7 +9306,11 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ieghyx</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -9321,23 +9325,19 @@
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>branch-card</t>
+        </is>
+      </c>
       <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr">
-        <is>
-          <t>ieghyx</t>
-        </is>
-      </c>
+      <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
       <c r="AD128" t="inlineStr"/>
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr"/>
-      <c r="AG128" t="inlineStr">
-        <is>
-          <t>branch-card</t>
-        </is>
-      </c>
+      <c r="AG128" t="inlineStr"/>
       <c r="AH128" t="inlineStr"/>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="inlineStr"/>
@@ -9373,19 +9373,15 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>ijdb3v</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Riverside Branch</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>images/home/reserve.jpg</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
@@ -9396,11 +9392,15 @@
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>branch-image</t>
+        </is>
+      </c>
       <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>ijdb3v</t>
+          <t>images/home/reserve.jpg</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -9408,14 +9408,14 @@
       <c r="AD129" t="inlineStr"/>
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr"/>
-      <c r="AG129" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="AG129" t="inlineStr"/>
       <c r="AH129" t="inlineStr"/>
       <c r="AI129" t="inlineStr"/>
-      <c r="AJ129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>Riverside Branch</t>
+        </is>
+      </c>
       <c r="AK129" t="inlineStr"/>
       <c r="AL129" t="inlineStr"/>
       <c r="AM129" t="inlineStr"/>
@@ -9448,7 +9448,11 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ijc9w1</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -9463,23 +9467,19 @@
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>branch-content</t>
+        </is>
+      </c>
       <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr">
-        <is>
-          <t>ijc9w1</t>
-        </is>
-      </c>
+      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
       <c r="AD130" t="inlineStr"/>
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr"/>
-      <c r="AG130" t="inlineStr">
-        <is>
-          <t>branch-content</t>
-        </is>
-      </c>
+      <c r="AG130" t="inlineStr"/>
       <c r="AH130" t="inlineStr"/>
       <c r="AI130" t="inlineStr"/>
       <c r="AJ130" t="inlineStr"/>
@@ -9515,7 +9515,11 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>inp499</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -9530,23 +9534,19 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>branch-header</t>
+        </is>
+      </c>
       <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr">
-        <is>
-          <t>inp499</t>
-        </is>
-      </c>
+      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
       <c r="AD131" t="inlineStr"/>
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr"/>
-      <c r="AG131" t="inlineStr">
-        <is>
-          <t>branch-header</t>
-        </is>
-      </c>
+      <c r="AG131" t="inlineStr"/>
       <c r="AH131" t="inlineStr"/>
       <c r="AI131" t="inlineStr"/>
       <c r="AJ131" t="inlineStr"/>
@@ -9582,7 +9582,11 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>i98m84</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -9597,23 +9601,19 @@
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>branch-name</t>
+        </is>
+      </c>
       <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr">
-        <is>
-          <t>i98m84</t>
-        </is>
-      </c>
+      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr"/>
-      <c r="AG132" t="inlineStr">
-        <is>
-          <t>branch-name</t>
-        </is>
-      </c>
+      <c r="AG132" t="inlineStr"/>
       <c r="AH132" t="inlineStr"/>
       <c r="AI132" t="inlineStr"/>
       <c r="AJ132" t="inlineStr"/>
@@ -9649,7 +9649,11 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>ibbi2g</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -9664,23 +9668,19 @@
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>branch-tag</t>
+        </is>
+      </c>
       <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr">
-        <is>
-          <t>ibbi2g</t>
-        </is>
-      </c>
+      <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="inlineStr"/>
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr"/>
-      <c r="AG133" t="inlineStr">
-        <is>
-          <t>branch-tag</t>
-        </is>
-      </c>
+      <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
       <c r="AI133" t="inlineStr"/>
       <c r="AJ133" t="inlineStr"/>
@@ -9716,7 +9716,11 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>i4sl8p</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -9731,23 +9735,19 @@
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>branch-description</t>
+        </is>
+      </c>
       <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr">
-        <is>
-          <t>i4sl8p</t>
-        </is>
-      </c>
+      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
       <c r="AD134" t="inlineStr"/>
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr"/>
-      <c r="AG134" t="inlineStr">
-        <is>
-          <t>branch-description</t>
-        </is>
-      </c>
+      <c r="AG134" t="inlineStr"/>
       <c r="AH134" t="inlineStr"/>
       <c r="AI134" t="inlineStr"/>
       <c r="AJ134" t="inlineStr"/>
@@ -9783,7 +9783,11 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>ips5kg</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -9798,23 +9802,19 @@
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>branch-actions</t>
+        </is>
+      </c>
       <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr">
-        <is>
-          <t>ips5kg</t>
-        </is>
-      </c>
+      <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
       <c r="AD135" t="inlineStr"/>
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr"/>
-      <c r="AG135" t="inlineStr">
-        <is>
-          <t>branch-actions</t>
-        </is>
-      </c>
+      <c r="AG135" t="inlineStr"/>
       <c r="AH135" t="inlineStr"/>
       <c r="AI135" t="inlineStr"/>
       <c r="AJ135" t="inlineStr"/>
@@ -9846,15 +9846,15 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>i9428q</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -9866,26 +9866,26 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-order-link</t>
+        </is>
+      </c>
       <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr">
-        <is>
-          <t>i9428q</t>
-        </is>
-      </c>
+      <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
       <c r="AD136" t="inlineStr"/>
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr"/>
-      <c r="AG136" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-order-link</t>
-        </is>
-      </c>
+      <c r="AG136" t="inlineStr"/>
       <c r="AH136" t="inlineStr"/>
       <c r="AI136" t="inlineStr"/>
       <c r="AJ136" t="inlineStr"/>
@@ -9921,7 +9921,11 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>ij9d3l</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -9936,23 +9940,19 @@
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>branch-divider</t>
+        </is>
+      </c>
       <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr">
-        <is>
-          <t>ij9d3l</t>
-        </is>
-      </c>
+      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr"/>
-      <c r="AG137" t="inlineStr">
-        <is>
-          <t>branch-divider</t>
-        </is>
-      </c>
+      <c r="AG137" t="inlineStr"/>
       <c r="AH137" t="inlineStr"/>
       <c r="AI137" t="inlineStr"/>
       <c r="AJ137" t="inlineStr"/>
@@ -9984,15 +9984,15 @@
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>isoaxo</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -10004,26 +10004,26 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-reserve-link</t>
+        </is>
+      </c>
       <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr">
-        <is>
-          <t>isoaxo</t>
-        </is>
-      </c>
+      <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
       <c r="AD138" t="inlineStr"/>
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr"/>
-      <c r="AG138" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-reserve-link</t>
-        </is>
-      </c>
+      <c r="AG138" t="inlineStr"/>
       <c r="AH138" t="inlineStr"/>
       <c r="AI138" t="inlineStr"/>
       <c r="AJ138" t="inlineStr"/>
@@ -10059,7 +10059,11 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>i6k2me</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -10074,23 +10078,19 @@
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>branch-card</t>
+        </is>
+      </c>
       <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr">
-        <is>
-          <t>i6k2me</t>
-        </is>
-      </c>
+      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="inlineStr"/>
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr">
-        <is>
-          <t>branch-card</t>
-        </is>
-      </c>
+      <c r="AG139" t="inlineStr"/>
       <c r="AH139" t="inlineStr"/>
       <c r="AI139" t="inlineStr"/>
       <c r="AJ139" t="inlineStr"/>
@@ -10126,19 +10126,15 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>iv94co</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>North Hills Branch</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>images/home/reserve-2.jpg</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
@@ -10149,11 +10145,15 @@
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>branch-image</t>
+        </is>
+      </c>
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>iv94co</t>
+          <t>images/home/reserve-2.jpg</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -10161,14 +10161,14 @@
       <c r="AD140" t="inlineStr"/>
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr"/>
-      <c r="AG140" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="AG140" t="inlineStr"/>
       <c r="AH140" t="inlineStr"/>
       <c r="AI140" t="inlineStr"/>
-      <c r="AJ140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>North Hills Branch</t>
+        </is>
+      </c>
       <c r="AK140" t="inlineStr"/>
       <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="inlineStr"/>
@@ -10201,7 +10201,11 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>iv5xt7</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -10216,23 +10220,19 @@
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>branch-content</t>
+        </is>
+      </c>
       <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr">
-        <is>
-          <t>iv5xt7</t>
-        </is>
-      </c>
+      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="inlineStr"/>
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr"/>
-      <c r="AG141" t="inlineStr">
-        <is>
-          <t>branch-content</t>
-        </is>
-      </c>
+      <c r="AG141" t="inlineStr"/>
       <c r="AH141" t="inlineStr"/>
       <c r="AI141" t="inlineStr"/>
       <c r="AJ141" t="inlineStr"/>
@@ -10268,7 +10268,11 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>ir9ett</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -10283,23 +10287,19 @@
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>branch-header</t>
+        </is>
+      </c>
       <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr">
-        <is>
-          <t>ir9ett</t>
-        </is>
-      </c>
+      <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr">
-        <is>
-          <t>branch-header</t>
-        </is>
-      </c>
+      <c r="AG142" t="inlineStr"/>
       <c r="AH142" t="inlineStr"/>
       <c r="AI142" t="inlineStr"/>
       <c r="AJ142" t="inlineStr"/>
@@ -10335,7 +10335,11 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>ibjrmg</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -10350,23 +10354,19 @@
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>branch-name</t>
+        </is>
+      </c>
       <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr">
-        <is>
-          <t>ibjrmg</t>
-        </is>
-      </c>
+      <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
       <c r="AD143" t="inlineStr"/>
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr"/>
-      <c r="AG143" t="inlineStr">
-        <is>
-          <t>branch-name</t>
-        </is>
-      </c>
+      <c r="AG143" t="inlineStr"/>
       <c r="AH143" t="inlineStr"/>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="inlineStr"/>
@@ -10402,7 +10402,11 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>iy6ts8</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
@@ -10417,23 +10421,19 @@
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>branch-tag</t>
+        </is>
+      </c>
       <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr">
-        <is>
-          <t>iy6ts8</t>
-        </is>
-      </c>
+      <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="inlineStr"/>
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr"/>
-      <c r="AG144" t="inlineStr">
-        <is>
-          <t>branch-tag</t>
-        </is>
-      </c>
+      <c r="AG144" t="inlineStr"/>
       <c r="AH144" t="inlineStr"/>
       <c r="AI144" t="inlineStr"/>
       <c r="AJ144" t="inlineStr"/>
@@ -10469,7 +10469,11 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>i0rc58</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -10484,23 +10488,19 @@
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>branch-description</t>
+        </is>
+      </c>
       <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr">
-        <is>
-          <t>i0rc58</t>
-        </is>
-      </c>
+      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr"/>
-      <c r="AG145" t="inlineStr">
-        <is>
-          <t>branch-description</t>
-        </is>
-      </c>
+      <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
       <c r="AI145" t="inlineStr"/>
       <c r="AJ145" t="inlineStr"/>
@@ -10536,7 +10536,11 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>ik4nla</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -10551,23 +10555,19 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>branch-actions</t>
+        </is>
+      </c>
       <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr">
-        <is>
-          <t>ik4nla</t>
-        </is>
-      </c>
+      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
       <c r="AD146" t="inlineStr"/>
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr"/>
-      <c r="AG146" t="inlineStr">
-        <is>
-          <t>branch-actions</t>
-        </is>
-      </c>
+      <c r="AG146" t="inlineStr"/>
       <c r="AH146" t="inlineStr"/>
       <c r="AI146" t="inlineStr"/>
       <c r="AJ146" t="inlineStr"/>
@@ -10599,15 +10599,15 @@
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>iyalid</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -10619,26 +10619,26 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-order-link</t>
+        </is>
+      </c>
       <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr">
-        <is>
-          <t>iyalid</t>
-        </is>
-      </c>
+      <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
       <c r="AD147" t="inlineStr"/>
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr"/>
-      <c r="AG147" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-order-link</t>
-        </is>
-      </c>
+      <c r="AG147" t="inlineStr"/>
       <c r="AH147" t="inlineStr"/>
       <c r="AI147" t="inlineStr"/>
       <c r="AJ147" t="inlineStr"/>
@@ -10674,7 +10674,11 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>i0c1ki</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -10689,23 +10693,19 @@
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>branch-divider</t>
+        </is>
+      </c>
       <c r="Z148" t="inlineStr"/>
-      <c r="AA148" t="inlineStr">
-        <is>
-          <t>i0c1ki</t>
-        </is>
-      </c>
+      <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
       <c r="AD148" t="inlineStr"/>
       <c r="AE148" t="inlineStr"/>
       <c r="AF148" t="inlineStr"/>
-      <c r="AG148" t="inlineStr">
-        <is>
-          <t>branch-divider</t>
-        </is>
-      </c>
+      <c r="AG148" t="inlineStr"/>
       <c r="AH148" t="inlineStr"/>
       <c r="AI148" t="inlineStr"/>
       <c r="AJ148" t="inlineStr"/>
@@ -10737,15 +10737,15 @@
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ija2me</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -10757,26 +10757,26 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>gjs-t-link branch-reserve-link</t>
+        </is>
+      </c>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr">
-        <is>
-          <t>ija2me</t>
-        </is>
-      </c>
+      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
       <c r="AD149" t="inlineStr"/>
       <c r="AE149" t="inlineStr"/>
       <c r="AF149" t="inlineStr"/>
-      <c r="AG149" t="inlineStr">
-        <is>
-          <t>gjs-t-link branch-reserve-link</t>
-        </is>
-      </c>
+      <c r="AG149" t="inlineStr"/>
       <c r="AH149" t="inlineStr"/>
       <c r="AI149" t="inlineStr"/>
       <c r="AJ149" t="inlineStr"/>
@@ -10812,7 +10812,11 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>ikdb8u</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10827,23 +10831,19 @@
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>footer</t>
+        </is>
+      </c>
       <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr">
-        <is>
-          <t>ikdb8u</t>
-        </is>
-      </c>
+      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
       <c r="AD150" t="inlineStr"/>
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr"/>
-      <c r="AG150" t="inlineStr">
-        <is>
-          <t>footer</t>
-        </is>
-      </c>
+      <c r="AG150" t="inlineStr"/>
       <c r="AH150" t="inlineStr"/>
       <c r="AI150" t="inlineStr"/>
       <c r="AJ150" t="inlineStr"/>
@@ -10879,7 +10879,11 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>idqqkg</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10894,23 +10898,19 @@
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>footer-container</t>
+        </is>
+      </c>
       <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr">
-        <is>
-          <t>idqqkg</t>
-        </is>
-      </c>
+      <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
       <c r="AD151" t="inlineStr"/>
       <c r="AE151" t="inlineStr"/>
       <c r="AF151" t="inlineStr"/>
-      <c r="AG151" t="inlineStr">
-        <is>
-          <t>footer-container</t>
-        </is>
-      </c>
+      <c r="AG151" t="inlineStr"/>
       <c r="AH151" t="inlineStr"/>
       <c r="AI151" t="inlineStr"/>
       <c r="AJ151" t="inlineStr"/>
@@ -10946,7 +10946,11 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>isenbc</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -10961,23 +10965,19 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>footer-brand-block</t>
+        </is>
+      </c>
       <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr">
-        <is>
-          <t>isenbc</t>
-        </is>
-      </c>
+      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
       <c r="AE152" t="inlineStr"/>
       <c r="AF152" t="inlineStr"/>
-      <c r="AG152" t="inlineStr">
-        <is>
-          <t>footer-brand-block</t>
-        </is>
-      </c>
+      <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
       <c r="AI152" t="inlineStr"/>
       <c r="AJ152" t="inlineStr"/>
@@ -11013,7 +11013,11 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ixhycm</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -11028,23 +11032,19 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>footer-brand-row</t>
+        </is>
+      </c>
       <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr">
-        <is>
-          <t>ixhycm</t>
-        </is>
-      </c>
+      <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
       <c r="AD153" t="inlineStr"/>
       <c r="AE153" t="inlineStr"/>
       <c r="AF153" t="inlineStr"/>
-      <c r="AG153" t="inlineStr">
-        <is>
-          <t>footer-brand-row</t>
-        </is>
-      </c>
+      <c r="AG153" t="inlineStr"/>
       <c r="AH153" t="inlineStr"/>
       <c r="AI153" t="inlineStr"/>
       <c r="AJ153" t="inlineStr"/>
@@ -11080,7 +11080,11 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>i73dsb</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -11095,23 +11099,19 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>footer-brand-mark</t>
+        </is>
+      </c>
       <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr">
-        <is>
-          <t>i73dsb</t>
-        </is>
-      </c>
+      <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
       <c r="AD154" t="inlineStr"/>
       <c r="AE154" t="inlineStr"/>
       <c r="AF154" t="inlineStr"/>
-      <c r="AG154" t="inlineStr">
-        <is>
-          <t>footer-brand-mark</t>
-        </is>
-      </c>
+      <c r="AG154" t="inlineStr"/>
       <c r="AH154" t="inlineStr"/>
       <c r="AI154" t="inlineStr"/>
       <c r="AJ154" t="inlineStr"/>
@@ -11147,7 +11147,11 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>i36gam</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -11162,23 +11166,19 @@
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>footer-brand-name</t>
+        </is>
+      </c>
       <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr">
-        <is>
-          <t>i36gam</t>
-        </is>
-      </c>
+      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
       <c r="AD155" t="inlineStr"/>
       <c r="AE155" t="inlineStr"/>
       <c r="AF155" t="inlineStr"/>
-      <c r="AG155" t="inlineStr">
-        <is>
-          <t>footer-brand-name</t>
-        </is>
-      </c>
+      <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="inlineStr"/>
       <c r="AI155" t="inlineStr"/>
       <c r="AJ155" t="inlineStr"/>
@@ -11214,7 +11214,11 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>i1ixnr</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -11229,23 +11233,19 @@
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>footer-brand-text</t>
+        </is>
+      </c>
       <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr">
-        <is>
-          <t>i1ixnr</t>
-        </is>
-      </c>
+      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
       <c r="AD156" t="inlineStr"/>
       <c r="AE156" t="inlineStr"/>
       <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr">
-        <is>
-          <t>footer-brand-text</t>
-        </is>
-      </c>
+      <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
       <c r="AI156" t="inlineStr"/>
       <c r="AJ156" t="inlineStr"/>
@@ -11281,7 +11281,11 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>ih2ufx</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -11296,23 +11300,19 @@
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>footer-socials</t>
+        </is>
+      </c>
       <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr">
-        <is>
-          <t>ih2ufx</t>
-        </is>
-      </c>
+      <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
       <c r="AD157" t="inlineStr"/>
       <c r="AE157" t="inlineStr"/>
       <c r="AF157" t="inlineStr"/>
-      <c r="AG157" t="inlineStr">
-        <is>
-          <t>footer-socials</t>
-        </is>
-      </c>
+      <c r="AG157" t="inlineStr"/>
       <c r="AH157" t="inlineStr"/>
       <c r="AI157" t="inlineStr"/>
       <c r="AJ157" t="inlineStr"/>
@@ -11344,15 +11344,15 @@
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>i985df</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -11364,26 +11364,26 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-social-link</t>
+        </is>
+      </c>
       <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr">
-        <is>
-          <t>i985df</t>
-        </is>
-      </c>
+      <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
       <c r="AD158" t="inlineStr"/>
       <c r="AE158" t="inlineStr"/>
       <c r="AF158" t="inlineStr"/>
-      <c r="AG158" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-social-link</t>
-        </is>
-      </c>
+      <c r="AG158" t="inlineStr"/>
       <c r="AH158" t="inlineStr"/>
       <c r="AI158" t="inlineStr"/>
       <c r="AJ158" t="inlineStr"/>
@@ -11419,19 +11419,15 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>iem4ub</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>icons/home/instagram.svg</t>
-        </is>
-      </c>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
@@ -11446,7 +11442,7 @@
       <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>iem4ub</t>
+          <t>icons/home/instagram.svg</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -11457,7 +11453,11 @@
       <c r="AG159" t="inlineStr"/>
       <c r="AH159" t="inlineStr"/>
       <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
       <c r="AK159" t="inlineStr"/>
       <c r="AL159" t="inlineStr"/>
       <c r="AM159" t="inlineStr"/>
@@ -11486,15 +11486,15 @@
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>i806gl</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -11506,26 +11506,26 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-social-link</t>
+        </is>
+      </c>
       <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr">
-        <is>
-          <t>i806gl</t>
-        </is>
-      </c>
+      <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
       <c r="AD160" t="inlineStr"/>
       <c r="AE160" t="inlineStr"/>
       <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-social-link</t>
-        </is>
-      </c>
+      <c r="AG160" t="inlineStr"/>
       <c r="AH160" t="inlineStr"/>
       <c r="AI160" t="inlineStr"/>
       <c r="AJ160" t="inlineStr"/>
@@ -11561,19 +11561,15 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>izpyjx</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>icons/home/facebook.svg</t>
-        </is>
-      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
@@ -11584,11 +11580,15 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>footer-social-icon</t>
+        </is>
+      </c>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>izpyjx</t>
+          <t>icons/home/facebook.svg</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
@@ -11596,14 +11596,14 @@
       <c r="AD161" t="inlineStr"/>
       <c r="AE161" t="inlineStr"/>
       <c r="AF161" t="inlineStr"/>
-      <c r="AG161" t="inlineStr">
-        <is>
-          <t>footer-social-icon</t>
-        </is>
-      </c>
+      <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="inlineStr"/>
-      <c r="AJ161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
       <c r="AK161" t="inlineStr"/>
       <c r="AL161" t="inlineStr"/>
       <c r="AM161" t="inlineStr"/>
@@ -11632,15 +11632,15 @@
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>i03u9w</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
@@ -11652,26 +11652,26 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-social-link</t>
+        </is>
+      </c>
       <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr">
-        <is>
-          <t>i03u9w</t>
-        </is>
-      </c>
+      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
       <c r="AE162" t="inlineStr"/>
       <c r="AF162" t="inlineStr"/>
-      <c r="AG162" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-social-link</t>
-        </is>
-      </c>
+      <c r="AG162" t="inlineStr"/>
       <c r="AH162" t="inlineStr"/>
       <c r="AI162" t="inlineStr"/>
       <c r="AJ162" t="inlineStr"/>
@@ -11707,19 +11707,15 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>iv1dkv</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>icons/home/twitter.svg</t>
-        </is>
-      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
@@ -11730,11 +11726,15 @@
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>footer-social-icon</t>
+        </is>
+      </c>
       <c r="Z163" t="inlineStr"/>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>iv1dkv</t>
+          <t>icons/home/twitter.svg</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -11742,14 +11742,14 @@
       <c r="AD163" t="inlineStr"/>
       <c r="AE163" t="inlineStr"/>
       <c r="AF163" t="inlineStr"/>
-      <c r="AG163" t="inlineStr">
-        <is>
-          <t>footer-social-icon</t>
-        </is>
-      </c>
+      <c r="AG163" t="inlineStr"/>
       <c r="AH163" t="inlineStr"/>
       <c r="AI163" t="inlineStr"/>
-      <c r="AJ163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="AK163" t="inlineStr"/>
       <c r="AL163" t="inlineStr"/>
       <c r="AM163" t="inlineStr"/>
@@ -11782,7 +11782,11 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>ijehoi</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -11797,23 +11801,19 @@
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>footer-links-block</t>
+        </is>
+      </c>
       <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr">
-        <is>
-          <t>ijehoi</t>
-        </is>
-      </c>
+      <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="inlineStr"/>
       <c r="AE164" t="inlineStr"/>
       <c r="AF164" t="inlineStr"/>
-      <c r="AG164" t="inlineStr">
-        <is>
-          <t>footer-links-block</t>
-        </is>
-      </c>
+      <c r="AG164" t="inlineStr"/>
       <c r="AH164" t="inlineStr"/>
       <c r="AI164" t="inlineStr"/>
       <c r="AJ164" t="inlineStr"/>
@@ -11849,7 +11849,11 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>i86uba</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -11864,23 +11868,19 @@
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>footer-links-title</t>
+        </is>
+      </c>
       <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr">
-        <is>
-          <t>i86uba</t>
-        </is>
-      </c>
+      <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
       <c r="AD165" t="inlineStr"/>
       <c r="AE165" t="inlineStr"/>
       <c r="AF165" t="inlineStr"/>
-      <c r="AG165" t="inlineStr">
-        <is>
-          <t>footer-links-title</t>
-        </is>
-      </c>
+      <c r="AG165" t="inlineStr"/>
       <c r="AH165" t="inlineStr"/>
       <c r="AI165" t="inlineStr"/>
       <c r="AJ165" t="inlineStr"/>
@@ -11912,15 +11912,15 @@
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>ihtuj1</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -11932,26 +11932,26 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-link-item</t>
+        </is>
+      </c>
       <c r="Z166" t="inlineStr"/>
-      <c r="AA166" t="inlineStr">
-        <is>
-          <t>ihtuj1</t>
-        </is>
-      </c>
+      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
       <c r="AD166" t="inlineStr"/>
       <c r="AE166" t="inlineStr"/>
       <c r="AF166" t="inlineStr"/>
-      <c r="AG166" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-link-item</t>
-        </is>
-      </c>
+      <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
       <c r="AI166" t="inlineStr"/>
       <c r="AJ166" t="inlineStr"/>
@@ -11983,15 +11983,15 @@
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>ie8a7s</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -12003,26 +12003,26 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-link-item</t>
+        </is>
+      </c>
       <c r="Z167" t="inlineStr"/>
-      <c r="AA167" t="inlineStr">
-        <is>
-          <t>ie8a7s</t>
-        </is>
-      </c>
+      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
       <c r="AD167" t="inlineStr"/>
       <c r="AE167" t="inlineStr"/>
       <c r="AF167" t="inlineStr"/>
-      <c r="AG167" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-link-item</t>
-        </is>
-      </c>
+      <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="inlineStr"/>
       <c r="AI167" t="inlineStr"/>
       <c r="AJ167" t="inlineStr"/>
@@ -12054,15 +12054,15 @@
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>./cart-checkout.html</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>itc4c8</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -12074,26 +12074,26 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>./cart-checkout.html</t>
+        </is>
+      </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-link-item</t>
+        </is>
+      </c>
       <c r="Z168" t="inlineStr"/>
-      <c r="AA168" t="inlineStr">
-        <is>
-          <t>itc4c8</t>
-        </is>
-      </c>
+      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="inlineStr"/>
       <c r="AE168" t="inlineStr"/>
       <c r="AF168" t="inlineStr"/>
-      <c r="AG168" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-link-item</t>
-        </is>
-      </c>
+      <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="inlineStr"/>
       <c r="AI168" t="inlineStr"/>
       <c r="AJ168" t="inlineStr"/>
@@ -12125,15 +12125,15 @@
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>./order-confirmation-status.html</t>
-        </is>
-      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>ias5w2</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
@@ -12145,26 +12145,26 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>./order-confirmation-status.html</t>
+        </is>
+      </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-link-item</t>
+        </is>
+      </c>
       <c r="Z169" t="inlineStr"/>
-      <c r="AA169" t="inlineStr">
-        <is>
-          <t>ias5w2</t>
-        </is>
-      </c>
+      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
       <c r="AE169" t="inlineStr"/>
       <c r="AF169" t="inlineStr"/>
-      <c r="AG169" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-link-item</t>
-        </is>
-      </c>
+      <c r="AG169" t="inlineStr"/>
       <c r="AH169" t="inlineStr"/>
       <c r="AI169" t="inlineStr"/>
       <c r="AJ169" t="inlineStr"/>
@@ -12200,7 +12200,11 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>ied1dh</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -12215,23 +12219,19 @@
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>footer-contact-block</t>
+        </is>
+      </c>
       <c r="Z170" t="inlineStr"/>
-      <c r="AA170" t="inlineStr">
-        <is>
-          <t>ied1dh</t>
-        </is>
-      </c>
+      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
       <c r="AE170" t="inlineStr"/>
       <c r="AF170" t="inlineStr"/>
-      <c r="AG170" t="inlineStr">
-        <is>
-          <t>footer-contact-block</t>
-        </is>
-      </c>
+      <c r="AG170" t="inlineStr"/>
       <c r="AH170" t="inlineStr"/>
       <c r="AI170" t="inlineStr"/>
       <c r="AJ170" t="inlineStr"/>
@@ -12267,7 +12267,11 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>iu0djf</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
@@ -12282,23 +12286,19 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>footer-contact-title</t>
+        </is>
+      </c>
       <c r="Z171" t="inlineStr"/>
-      <c r="AA171" t="inlineStr">
-        <is>
-          <t>iu0djf</t>
-        </is>
-      </c>
+      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
       <c r="AE171" t="inlineStr"/>
       <c r="AF171" t="inlineStr"/>
-      <c r="AG171" t="inlineStr">
-        <is>
-          <t>footer-contact-title</t>
-        </is>
-      </c>
+      <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr"/>
       <c r="AI171" t="inlineStr"/>
       <c r="AJ171" t="inlineStr"/>
@@ -12334,7 +12334,11 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>iz1j5m</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -12349,23 +12353,19 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>footer-contact-item</t>
+        </is>
+      </c>
       <c r="Z172" t="inlineStr"/>
-      <c r="AA172" t="inlineStr">
-        <is>
-          <t>iz1j5m</t>
-        </is>
-      </c>
+      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="inlineStr"/>
       <c r="AF172" t="inlineStr"/>
-      <c r="AG172" t="inlineStr">
-        <is>
-          <t>footer-contact-item</t>
-        </is>
-      </c>
+      <c r="AG172" t="inlineStr"/>
       <c r="AH172" t="inlineStr"/>
       <c r="AI172" t="inlineStr"/>
       <c r="AJ172" t="inlineStr"/>
@@ -12401,7 +12401,11 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>iwz7np</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -12416,23 +12420,19 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>footer-contact-item</t>
+        </is>
+      </c>
       <c r="Z173" t="inlineStr"/>
-      <c r="AA173" t="inlineStr">
-        <is>
-          <t>iwz7np</t>
-        </is>
-      </c>
+      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="inlineStr"/>
       <c r="AE173" t="inlineStr"/>
       <c r="AF173" t="inlineStr"/>
-      <c r="AG173" t="inlineStr">
-        <is>
-          <t>footer-contact-item</t>
-        </is>
-      </c>
+      <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr"/>
       <c r="AI173" t="inlineStr"/>
       <c r="AJ173" t="inlineStr"/>
@@ -12468,7 +12468,11 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>ig12y7</t>
+        </is>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -12483,23 +12487,19 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>footer-contact-item</t>
+        </is>
+      </c>
       <c r="Z174" t="inlineStr"/>
-      <c r="AA174" t="inlineStr">
-        <is>
-          <t>ig12y7</t>
-        </is>
-      </c>
+      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
       <c r="AD174" t="inlineStr"/>
       <c r="AE174" t="inlineStr"/>
       <c r="AF174" t="inlineStr"/>
-      <c r="AG174" t="inlineStr">
-        <is>
-          <t>footer-contact-item</t>
-        </is>
-      </c>
+      <c r="AG174" t="inlineStr"/>
       <c r="AH174" t="inlineStr"/>
       <c r="AI174" t="inlineStr"/>
       <c r="AJ174" t="inlineStr"/>
@@ -12535,7 +12535,11 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>iakbm7</t>
+        </is>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -12550,23 +12554,19 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>footer-cta-block</t>
+        </is>
+      </c>
       <c r="Z175" t="inlineStr"/>
-      <c r="AA175" t="inlineStr">
-        <is>
-          <t>iakbm7</t>
-        </is>
-      </c>
+      <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
       <c r="AD175" t="inlineStr"/>
       <c r="AE175" t="inlineStr"/>
       <c r="AF175" t="inlineStr"/>
-      <c r="AG175" t="inlineStr">
-        <is>
-          <t>footer-cta-block</t>
-        </is>
-      </c>
+      <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
       <c r="AI175" t="inlineStr"/>
       <c r="AJ175" t="inlineStr"/>
@@ -12602,7 +12602,11 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>ivc5de</t>
+        </is>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -12617,23 +12621,19 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>footer-cta-title</t>
+        </is>
+      </c>
       <c r="Z176" t="inlineStr"/>
-      <c r="AA176" t="inlineStr">
-        <is>
-          <t>ivc5de</t>
-        </is>
-      </c>
+      <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="inlineStr"/>
       <c r="AD176" t="inlineStr"/>
       <c r="AE176" t="inlineStr"/>
       <c r="AF176" t="inlineStr"/>
-      <c r="AG176" t="inlineStr">
-        <is>
-          <t>footer-cta-title</t>
-        </is>
-      </c>
+      <c r="AG176" t="inlineStr"/>
       <c r="AH176" t="inlineStr"/>
       <c r="AI176" t="inlineStr"/>
       <c r="AJ176" t="inlineStr"/>
@@ -12669,7 +12669,11 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>iqxk1l</t>
+        </is>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -12684,23 +12688,19 @@
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>footer-input-group</t>
+        </is>
+      </c>
       <c r="Z177" t="inlineStr"/>
-      <c r="AA177" t="inlineStr">
-        <is>
-          <t>iqxk1l</t>
-        </is>
-      </c>
+      <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
       <c r="AD177" t="inlineStr"/>
       <c r="AE177" t="inlineStr"/>
       <c r="AF177" t="inlineStr"/>
-      <c r="AG177" t="inlineStr">
-        <is>
-          <t>footer-input-group</t>
-        </is>
-      </c>
+      <c r="AG177" t="inlineStr"/>
       <c r="AH177" t="inlineStr"/>
       <c r="AI177" t="inlineStr"/>
       <c r="AJ177" t="inlineStr"/>
@@ -12733,14 +12733,14 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Enter your email</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>igtwoh</t>
+        </is>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -12749,33 +12749,29 @@
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
+      <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>Enter your email</t>
+        </is>
+      </c>
       <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>gjs-t-border footer-email-input</t>
+        </is>
+      </c>
       <c r="Z178" t="inlineStr"/>
-      <c r="AA178" t="inlineStr">
-        <is>
-          <t>igtwoh</t>
-        </is>
-      </c>
+      <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
       <c r="AD178" t="inlineStr"/>
       <c r="AE178" t="inlineStr"/>
       <c r="AF178" t="inlineStr"/>
-      <c r="AG178" t="inlineStr">
-        <is>
-          <t>gjs-t-border footer-email-input</t>
-        </is>
-      </c>
+      <c r="AG178" t="inlineStr"/>
       <c r="AH178" t="inlineStr"/>
       <c r="AI178" t="inlineStr"/>
       <c r="AJ178" t="inlineStr"/>
@@ -12783,7 +12779,11 @@
       <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="inlineStr"/>
       <c r="AN178" t="inlineStr"/>
-      <c r="AO178" t="inlineStr"/>
+      <c r="AO178" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
       <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="n">
         <v>263</v>
@@ -12811,7 +12811,11 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>i4gekk</t>
+        </is>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -12820,33 +12824,25 @@
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>button</t>
-        </is>
-      </c>
+      <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>gjs-t-button footer-subscribe-button</t>
+        </is>
+      </c>
       <c r="Z179" t="inlineStr"/>
-      <c r="AA179" t="inlineStr">
-        <is>
-          <t>i4gekk</t>
-        </is>
-      </c>
+      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
       <c r="AD179" t="inlineStr"/>
       <c r="AE179" t="inlineStr"/>
       <c r="AF179" t="inlineStr"/>
-      <c r="AG179" t="inlineStr">
-        <is>
-          <t>gjs-t-button footer-subscribe-button</t>
-        </is>
-      </c>
+      <c r="AG179" t="inlineStr"/>
       <c r="AH179" t="inlineStr"/>
       <c r="AI179" t="inlineStr"/>
       <c r="AJ179" t="inlineStr"/>
@@ -12854,7 +12850,11 @@
       <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="inlineStr"/>
       <c r="AN179" t="inlineStr"/>
-      <c r="AO179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr">
+        <is>
+          <t>button</t>
+        </is>
+      </c>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="n">
         <v>264</v>
@@ -12882,7 +12882,11 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>in468z</t>
+        </is>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -12897,23 +12901,19 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>footer-consent-text</t>
+        </is>
+      </c>
       <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr">
-        <is>
-          <t>in468z</t>
-        </is>
-      </c>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
       <c r="AD180" t="inlineStr"/>
       <c r="AE180" t="inlineStr"/>
       <c r="AF180" t="inlineStr"/>
-      <c r="AG180" t="inlineStr">
-        <is>
-          <t>footer-consent-text</t>
-        </is>
-      </c>
+      <c r="AG180" t="inlineStr"/>
       <c r="AH180" t="inlineStr"/>
       <c r="AI180" t="inlineStr"/>
       <c r="AJ180" t="inlineStr"/>
@@ -12949,7 +12949,11 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>intjx4</t>
+        </is>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
@@ -12964,23 +12968,19 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>footer-bottom</t>
+        </is>
+      </c>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr">
-        <is>
-          <t>intjx4</t>
-        </is>
-      </c>
+      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
       <c r="AD181" t="inlineStr"/>
       <c r="AE181" t="inlineStr"/>
       <c r="AF181" t="inlineStr"/>
-      <c r="AG181" t="inlineStr">
-        <is>
-          <t>footer-bottom</t>
-        </is>
-      </c>
+      <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
       <c r="AI181" t="inlineStr"/>
       <c r="AJ181" t="inlineStr"/>
@@ -13016,7 +13016,11 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>i9rm0j</t>
+        </is>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
@@ -13031,23 +13035,19 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>footer-bottom-container</t>
+        </is>
+      </c>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr">
-        <is>
-          <t>i9rm0j</t>
-        </is>
-      </c>
+      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
       <c r="AD182" t="inlineStr"/>
       <c r="AE182" t="inlineStr"/>
       <c r="AF182" t="inlineStr"/>
-      <c r="AG182" t="inlineStr">
-        <is>
-          <t>footer-bottom-container</t>
-        </is>
-      </c>
+      <c r="AG182" t="inlineStr"/>
       <c r="AH182" t="inlineStr"/>
       <c r="AI182" t="inlineStr"/>
       <c r="AJ182" t="inlineStr"/>
@@ -13083,7 +13083,11 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>ixmut1</t>
+        </is>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -13098,23 +13102,19 @@
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>footer-copyright</t>
+        </is>
+      </c>
       <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr">
-        <is>
-          <t>ixmut1</t>
-        </is>
-      </c>
+      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
       <c r="AD183" t="inlineStr"/>
       <c r="AE183" t="inlineStr"/>
       <c r="AF183" t="inlineStr"/>
-      <c r="AG183" t="inlineStr">
-        <is>
-          <t>footer-copyright</t>
-        </is>
-      </c>
+      <c r="AG183" t="inlineStr"/>
       <c r="AH183" t="inlineStr"/>
       <c r="AI183" t="inlineStr"/>
       <c r="AJ183" t="inlineStr"/>
@@ -13150,7 +13150,11 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>i0spms</t>
+        </is>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -13165,23 +13169,19 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>footer-legal-links</t>
+        </is>
+      </c>
       <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="inlineStr">
-        <is>
-          <t>i0spms</t>
-        </is>
-      </c>
+      <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
       <c r="AD184" t="inlineStr"/>
       <c r="AE184" t="inlineStr"/>
       <c r="AF184" t="inlineStr"/>
-      <c r="AG184" t="inlineStr">
-        <is>
-          <t>footer-legal-links</t>
-        </is>
-      </c>
+      <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
       <c r="AI184" t="inlineStr"/>
       <c r="AJ184" t="inlineStr"/>
@@ -13213,15 +13213,15 @@
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>iicups</t>
+        </is>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
@@ -13233,26 +13233,26 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-legal-link</t>
+        </is>
+      </c>
       <c r="Z185" t="inlineStr"/>
-      <c r="AA185" t="inlineStr">
-        <is>
-          <t>iicups</t>
-        </is>
-      </c>
+      <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
       <c r="AD185" t="inlineStr"/>
       <c r="AE185" t="inlineStr"/>
       <c r="AF185" t="inlineStr"/>
-      <c r="AG185" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-legal-link</t>
-        </is>
-      </c>
+      <c r="AG185" t="inlineStr"/>
       <c r="AH185" t="inlineStr"/>
       <c r="AI185" t="inlineStr"/>
       <c r="AJ185" t="inlineStr"/>
@@ -13284,15 +13284,15 @@
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>it40gk</t>
+        </is>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -13304,26 +13304,26 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>gjs-t-link footer-legal-link</t>
+        </is>
+      </c>
       <c r="Z186" t="inlineStr"/>
-      <c r="AA186" t="inlineStr">
-        <is>
-          <t>it40gk</t>
-        </is>
-      </c>
+      <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
       <c r="AD186" t="inlineStr"/>
       <c r="AE186" t="inlineStr"/>
       <c r="AF186" t="inlineStr"/>
-      <c r="AG186" t="inlineStr">
-        <is>
-          <t>gjs-t-link footer-legal-link</t>
-        </is>
-      </c>
+      <c r="AG186" t="inlineStr"/>
       <c r="AH186" t="inlineStr"/>
       <c r="AI186" t="inlineStr"/>
       <c r="AJ186" t="inlineStr"/>

--- a/tracking/html/homepage.xlsx
+++ b/tracking/html/homepage.xlsx
@@ -439,197 +439,197 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>autocomplete</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>placeholder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>sizes</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>aria-expanded</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>http-equiv</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>tabindex</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>maxlength</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>crossorigin</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>alt</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>srcset</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>onchange</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title_attr</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>aria-label</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>data_attrs</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>onclick</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>rel</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>minlength</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>onsubmit</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>aria-hidden</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
         <is>
           <t>pattern</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>onchange</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>http-equiv</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>tabindex</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>minlength</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>autocomplete</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>title_attr</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>aria-expanded</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>crossorigin</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>placeholder</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>checked</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>maxlength</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>data_attrs</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>onclick</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>sizes</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>rel</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>alt</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>readonly</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>srcset</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>onsubmit</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>aria-hidden</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
@@ -659,14 +659,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>width=device-width, initial-scale=1</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>width=device-width, initial-scale=1</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -691,16 +691,16 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>viewport</t>
+        </is>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>viewport</t>
-        </is>
-      </c>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
@@ -726,14 +726,14 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>index,follow</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>index,follow</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -758,16 +758,16 @@
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>robots</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>robots</t>
-        </is>
-      </c>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="n">
         <v>8</v>
       </c>
@@ -790,7 +790,11 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://fonts.googleapis.com</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -806,26 +810,22 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>https://fonts.googleapis.com</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>preconnect</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>preconnect</t>
-        </is>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
@@ -857,7 +857,11 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://fonts.gstatic.com</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -873,26 +877,22 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>https://fonts.gstatic.com</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>preconnect</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>preconnect</t>
-        </is>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -924,7 +924,11 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://fonts.googleapis.com/css2?family=Inter:wght@300;400;600;700&amp;family=Cormorant+Garamond:wght@400;600;700&amp;display=swap</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -940,26 +944,22 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>https://fonts.googleapis.com/css2?family=Inter:wght@300;400;600;700&amp;family=Cormorant+Garamond:wght@400;600;700&amp;display=swap</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>stylesheet</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>stylesheet</t>
-        </is>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
@@ -991,7 +991,11 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>css/homepage.css</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -1007,26 +1011,22 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>css/homepage.css</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>stylesheet</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>stylesheet</t>
-        </is>
-      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
@@ -1062,11 +1062,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>iydd</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1081,17 +1077,21 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>gjs-t-body</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>iydd</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1129,11 +1129,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>isu4w</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1148,17 +1144,21 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>header-navbar</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>isu4w</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
@@ -1196,11 +1196,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ianog</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1215,17 +1211,21 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>navbar-container</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ianog</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>homapge.html</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ibb5h</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1279,24 +1279,24 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>homapge.html</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>gjs-t-link navbar-brand</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ibb5h</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
@@ -1334,11 +1334,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>i6r9s</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1353,17 +1349,21 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>brand-mark</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>i6r9s</t>
+        </is>
+      </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
@@ -1401,11 +1401,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>iyksh</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1420,17 +1416,21 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>brand-name</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>iyksh</t>
+        </is>
+      </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
@@ -1468,11 +1468,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>ixcva</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1487,17 +1483,21 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>navbar-links</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>ixcva</t>
+        </is>
+      </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>html/menu.html</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>i4fmj</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1551,24 +1551,24 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>html/menu.html</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>gjs-t-link navbar-link</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>i4fmj</t>
+        </is>
+      </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
@@ -1606,49 +1606,49 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>i0x7e</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Menu</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>icons/home/square-menu.svg</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>navbar-menu-icon</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>icons/home/square-menu.svg</t>
+          <t>navbar-menu-icon</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>i0x7e</t>
+        </is>
+      </c>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>Menu</t>
-        </is>
-      </c>
+      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
@@ -1677,15 +1677,15 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ijq7j</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1697,24 +1697,24 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>gjs-t-link navbar-link</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>ijq7j</t>
+        </is>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
@@ -1752,49 +1752,49 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>i5x0l</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Reservation</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>icons/home/calendar-fold.svg</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>navbar-reservation-icon</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>icons/home/calendar-fold.svg</t>
+          <t>navbar-reservation-icon</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>i5x0l</t>
+        </is>
+      </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>Reservation</t>
-        </is>
-      </c>
+      <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
@@ -1823,15 +1823,15 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>./cart-checkout.html</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>idlu8</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1843,24 +1843,24 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>./cart-checkout.html</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>gjs-t-link navbar-link</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>idlu8</t>
+        </is>
+      </c>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
@@ -1898,49 +1898,49 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>iaze2</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Cart</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>icons/home/shopping-cart.svg</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>navbar-cart-icon</t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>icons/home/shopping-cart.svg</t>
+          <t>navbar-cart-icon</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>iaze2</t>
+        </is>
+      </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>Cart</t>
-        </is>
-      </c>
+      <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
@@ -1969,15 +1969,15 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>./order-confirmation-status.html</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ig3kh</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1989,24 +1989,24 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>./order-confirmation-status.html</t>
-        </is>
-      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>gjs-t-link navbar-link</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>ig3kh</t>
+        </is>
+      </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
@@ -2044,49 +2044,49 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>i3f4o</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Order Status</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>icons/home/package.svg</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>navbar-order-status-icon</t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>icons/home/package.svg</t>
+          <t>navbar-order-status-icon</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>i3f4o</t>
+        </is>
+      </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>Order Status</t>
-        </is>
-      </c>
+      <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
@@ -2119,11 +2119,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>icxao</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2138,17 +2134,21 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
         <is>
           <t>hero-section</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>icxao</t>
+        </is>
+      </c>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
@@ -2186,11 +2186,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>i39hl</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -2205,17 +2201,21 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>hero-wrapper</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>i39hl</t>
+        </is>
+      </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
@@ -2253,11 +2253,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ie9pe</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -2272,17 +2268,21 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>hero-text</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>ie9pe</t>
+        </is>
+      </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
@@ -2320,11 +2320,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>inusu</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2339,17 +2335,21 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
         <is>
           <t>gjs-t-h1 hero-title</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>inusu</t>
+        </is>
+      </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
@@ -2387,11 +2387,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>iawfb</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2406,17 +2402,21 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
         <is>
           <t>hero-subtitle</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>iawfb</t>
+        </is>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
@@ -2454,11 +2454,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>ir21b</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2473,17 +2469,21 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>branch-selector-group</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>ir21b</t>
+        </is>
+      </c>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
@@ -2521,11 +2521,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>iik1u</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2540,17 +2536,21 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
         <is>
           <t>branch-label</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>iik1u</t>
+        </is>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
@@ -2588,11 +2588,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>i7rxq</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2607,17 +2603,21 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
         <is>
           <t>branch-select-wrapper</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>i7rxq</t>
+        </is>
+      </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
@@ -2655,11 +2655,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>branch-select</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2673,18 +2669,26 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
         <is>
           <t>gjs-t-border branch-select</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>branch-select</t>
+        </is>
+      </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
@@ -2694,11 +2698,7 @@
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
+      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="n">
         <v>50</v>
@@ -2726,23 +2726,19 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>ig0j2</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>city-center</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>city-center</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2755,7 +2751,11 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>ig0j2</t>
+        </is>
+      </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
@@ -2793,23 +2793,19 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>itg5n</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>riverside</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>riverside</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2822,7 +2818,11 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>itg5n</t>
+        </is>
+      </c>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
@@ -2860,23 +2860,19 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>i0kkg</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>north-hills</t>
-        </is>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>north-hills</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2889,7 +2885,11 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>i0kkg</t>
+        </is>
+      </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
@@ -2927,49 +2927,49 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>ikgah</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Expand</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>icons/home/chevron-down.svg</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>select-chevron-icon</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>icons/home/chevron-down.svg</t>
+          <t>select-chevron-icon</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>ikgah</t>
+        </is>
+      </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>Expand</t>
-        </is>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
@@ -3002,11 +3002,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>iop6f</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3021,17 +3017,21 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
         <is>
           <t>hero-ctas</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>iop6f</t>
+        </is>
+      </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
@@ -3065,15 +3065,15 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>i1hva</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -3085,24 +3085,24 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
         <is>
           <t>gjs-t-button cta-order-now</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>i1hva</t>
+        </is>
+      </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
@@ -3136,15 +3136,15 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ihr6y</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -3156,24 +3156,24 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
         <is>
           <t>cta-make-reservation</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>ihr6y</t>
+        </is>
+      </c>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
@@ -3211,11 +3211,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>ic9zk</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -3230,17 +3226,21 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
         <is>
           <t>quick-links</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>ic9zk</t>
+        </is>
+      </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
@@ -3274,15 +3274,15 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>iplw6</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -3294,24 +3294,24 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
         <is>
           <t>gjs-t-link quick-link</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>iplw6</t>
+        </is>
+      </c>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
@@ -3345,15 +3345,15 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>iridb</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -3365,24 +3365,24 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
         <is>
           <t>gjs-t-link quick-link</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>iridb</t>
+        </is>
+      </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
@@ -3416,15 +3416,15 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>ikezm</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3436,24 +3436,24 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>##</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
         <is>
           <t>gjs-t-link quick-link</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>ikezm</t>
+        </is>
+      </c>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
@@ -3491,11 +3491,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>iuwtx</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -3510,17 +3506,21 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
         <is>
           <t>hero-image-wrapper</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>iuwtx</t>
+        </is>
+      </c>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
@@ -3558,11 +3558,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>iq3uu</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3577,17 +3573,21 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
         <is>
           <t>hero-image-container</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>iq3uu</t>
+        </is>
+      </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
@@ -3625,49 +3625,49 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>ia0hp</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Maison di Sapori dining room</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>images/home/welcome-image.jpg</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>hero-image</t>
-        </is>
-      </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>images/home/welcome-image.jpg</t>
+          <t>hero-image</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>ia0hp</t>
+        </is>
+      </c>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>Maison di Sapori dining room</t>
-        </is>
-      </c>
+      <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
@@ -3700,11 +3700,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>izp9g</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3719,17 +3715,21 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
         <is>
           <t>hero-badge</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>izp9g</t>
+        </is>
+      </c>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
@@ -3767,49 +3767,49 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>ia4y7</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Star</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>icons/home/sparkles.svg</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>badge-icon</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>icons/home/sparkles.svg</t>
+          <t>badge-icon</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>ia4y7</t>
+        </is>
+      </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>Star</t>
-        </is>
-      </c>
+      <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
@@ -3842,11 +3842,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>irzsk</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3861,17 +3857,21 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>badge-text</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>irzsk</t>
+        </is>
+      </c>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
@@ -3909,11 +3909,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>iv6k1</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3928,17 +3924,21 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
         <is>
           <t>intro-section</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>iv6k1</t>
+        </is>
+      </c>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
@@ -3976,11 +3976,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>i69c2</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3995,17 +3991,21 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
         <is>
           <t>intro-container</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>i69c2</t>
+        </is>
+      </c>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
@@ -4043,11 +4043,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>iia3p</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -4062,17 +4058,21 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr">
         <is>
           <t>intro-card</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>iia3p</t>
+        </is>
+      </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
@@ -4110,11 +4110,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ilpxk</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -4129,17 +4125,21 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
         <is>
           <t>gjs-t-h2 intro-heading</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>ilpxk</t>
+        </is>
+      </c>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
@@ -4177,11 +4177,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>id8rc</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -4196,17 +4192,21 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
         <is>
           <t>intro-body</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>id8rc</t>
+        </is>
+      </c>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
@@ -4244,11 +4244,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>iothm</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -4263,17 +4259,21 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
         <is>
           <t>featured-section</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>iothm</t>
+        </is>
+      </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
@@ -4311,11 +4311,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>i0cw6</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -4330,17 +4326,21 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
         <is>
           <t>featured-container</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>i0cw6</t>
+        </is>
+      </c>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
@@ -4378,11 +4378,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>iqshs</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -4397,17 +4393,21 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
         <is>
           <t>featured-header</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>iqshs</t>
+        </is>
+      </c>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
@@ -4445,11 +4445,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>ib325</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -4464,17 +4460,21 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr">
         <is>
           <t>gjs-t-h2</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>ib325</t>
+        </is>
+      </c>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
@@ -4508,15 +4508,15 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>i77yn</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -4528,24 +4528,24 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
         <is>
           <t>gjs-t-link featured-link</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>i77yn</t>
+        </is>
+      </c>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
@@ -4583,49 +4583,49 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>ius2r</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>arrow</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>icons/home/arrow-right.svg</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>featured-arrow-icon</t>
-        </is>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>icons/home/arrow-right.svg</t>
+          <t>featured-arrow-icon</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>ius2r</t>
+        </is>
+      </c>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>arrow</t>
-        </is>
-      </c>
+      <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
@@ -4658,11 +4658,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>i8ovu</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -4677,17 +4673,21 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr">
         <is>
           <t>featured-grid</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>i8ovu</t>
+        </is>
+      </c>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
@@ -4725,11 +4725,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>i5ium</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -4744,17 +4740,21 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr">
         <is>
           <t>feature-card</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>i5ium</t>
+        </is>
+      </c>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
@@ -4792,49 +4792,49 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>iaa9h</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Chef’s Tagliatelle</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>images/home/menu-introduce-image.jpg</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>images/home/menu-introduce-image.jpg</t>
+          <t>feature-image</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>iaa9h</t>
+        </is>
+      </c>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>Chef’s Tagliatelle</t>
-        </is>
-      </c>
+      <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
@@ -4867,11 +4867,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>il98q</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -4886,17 +4882,21 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr">
         <is>
           <t>feature-content</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>il98q</t>
+        </is>
+      </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
@@ -4934,11 +4934,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>ioo2g</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -4953,17 +4949,21 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr">
         <is>
           <t>feature-title</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>ioo2g</t>
+        </is>
+      </c>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
@@ -5001,11 +5001,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>iztv7</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -5020,17 +5016,21 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
         <is>
           <t>feature-text</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>iztv7</t>
+        </is>
+      </c>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
@@ -5068,11 +5068,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>iysb1</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -5087,17 +5083,21 @@
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr">
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr">
         <is>
           <t>feature-actions</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>iysb1</t>
+        </is>
+      </c>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
@@ -5131,15 +5131,15 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>ij01z</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -5151,24 +5151,24 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>ij01z</t>
+        </is>
+      </c>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
@@ -5206,11 +5206,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>ixc6w</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -5225,17 +5221,21 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr">
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr">
         <is>
           <t>feature-divider</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>ixc6w</t>
+        </is>
+      </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
@@ -5269,15 +5269,15 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>itpjb</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -5289,24 +5289,24 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>itpjb</t>
+        </is>
+      </c>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
@@ -5344,11 +5344,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>i79y7</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -5363,17 +5359,21 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr">
         <is>
           <t>feature-card</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>i79y7</t>
+        </is>
+      </c>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
@@ -5411,49 +5411,49 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>i4755</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Wood-Fired Margherita</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>images/home/pizza.jpg</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>images/home/pizza.jpg</t>
+          <t>feature-image</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>i4755</t>
+        </is>
+      </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr">
-        <is>
-          <t>Wood-Fired Margherita</t>
-        </is>
-      </c>
+      <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
@@ -5486,11 +5486,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>iwc7i</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -5505,17 +5501,21 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr">
         <is>
           <t>feature-content</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>iwc7i</t>
+        </is>
+      </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
@@ -5553,11 +5553,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>i41ev</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -5572,17 +5568,21 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr">
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr">
         <is>
           <t>feature-title</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>i41ev</t>
+        </is>
+      </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
@@ -5620,11 +5620,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>iextb5</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -5639,17 +5635,21 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr">
         <is>
           <t>feature-text</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>iextb5</t>
+        </is>
+      </c>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
@@ -5687,11 +5687,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>imfxl1</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -5706,17 +5702,21 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr">
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr">
         <is>
           <t>feature-actions</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>imfxl1</t>
+        </is>
+      </c>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
@@ -5750,15 +5750,15 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>i1xpwo</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -5770,24 +5770,24 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>i1xpwo</t>
+        </is>
+      </c>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
@@ -5825,11 +5825,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>i1a7ld</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5844,17 +5840,21 @@
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr">
         <is>
           <t>feature-divider</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>i1a7ld</t>
+        </is>
+      </c>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
@@ -5888,15 +5888,15 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>i7lb4c</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5908,24 +5908,24 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr">
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>i7lb4c</t>
+        </is>
+      </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
@@ -5963,11 +5963,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>io1q4z</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5982,17 +5978,21 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr">
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr">
         <is>
           <t>feature-card</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>io1q4z</t>
+        </is>
+      </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
@@ -6030,49 +6030,49 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>ie4n0t</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>House Tiramisu</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>images/home/abstract-tiramisu.jpg</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>feature-image</t>
-        </is>
-      </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>images/home/abstract-tiramisu.jpg</t>
+          <t>feature-image</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>ie4n0t</t>
+        </is>
+      </c>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>House Tiramisu</t>
-        </is>
-      </c>
+      <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
@@ -6105,11 +6105,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>i7fy9z</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -6124,17 +6120,21 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr">
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr">
         <is>
           <t>feature-content</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>i7fy9z</t>
+        </is>
+      </c>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
@@ -6172,11 +6172,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>i98iyf</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -6191,17 +6187,21 @@
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr">
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr">
         <is>
           <t>feature-title</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>i98iyf</t>
+        </is>
+      </c>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
@@ -6239,11 +6239,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>izbh7h</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -6258,17 +6254,21 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr">
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr">
         <is>
           <t>feature-text</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>izbh7h</t>
+        </is>
+      </c>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
@@ -6306,11 +6306,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>idgqcb</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -6325,17 +6321,21 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr">
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr">
         <is>
           <t>feature-actions</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>idgqcb</t>
+        </is>
+      </c>
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
@@ -6369,15 +6369,15 @@
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>io6thu</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -6389,24 +6389,24 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>io6thu</t>
+        </is>
+      </c>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
@@ -6444,11 +6444,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>idhpjz</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -6463,17 +6459,21 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr">
         <is>
           <t>feature-divider</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>idhpjz</t>
+        </is>
+      </c>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
@@ -6507,15 +6507,15 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>i9zjbi</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -6527,24 +6527,24 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr">
         <is>
           <t>gjs-t-link feature-action-link</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>i9zjbi</t>
+        </is>
+      </c>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
@@ -6582,11 +6582,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>igbk4h</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -6601,17 +6597,21 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr">
         <is>
           <t>loyalty-banner</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>igbk4h</t>
+        </is>
+      </c>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
@@ -6649,11 +6649,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>iga1k6</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -6668,17 +6664,21 @@
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr">
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr">
         <is>
           <t>loyalty-text-group</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>iga1k6</t>
+        </is>
+      </c>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
@@ -6716,49 +6716,49 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>ihkle2</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Gift</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>icons/home/gift.svg</t>
+        </is>
+      </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t>loyalty-icon</t>
-        </is>
-      </c>
+      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>icons/home/gift.svg</t>
+          <t>loyalty-icon</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>ihkle2</t>
+        </is>
+      </c>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>Gift</t>
-        </is>
-      </c>
+      <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
       <c r="AL90" t="inlineStr"/>
       <c r="AM90" t="inlineStr"/>
@@ -6791,11 +6791,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>incjcc</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -6810,17 +6806,21 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr">
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr">
         <is>
           <t>loyalty-texts</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>incjcc</t>
+        </is>
+      </c>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
@@ -6858,11 +6858,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>igkdku</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -6877,17 +6873,21 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr">
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr">
         <is>
           <t>loyalty-title</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>igkdku</t>
+        </is>
+      </c>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
@@ -6925,11 +6925,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>i4ucr9</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -6944,17 +6940,21 @@
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr">
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr">
         <is>
           <t>loyalty-subtitle</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>i4ucr9</t>
+        </is>
+      </c>
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="inlineStr"/>
@@ -6992,11 +6992,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>i7lsin</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -7011,17 +7007,21 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr">
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr">
         <is>
           <t>loyalty-actions</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>i7lsin</t>
+        </is>
+      </c>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
@@ -7055,15 +7055,15 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>#loyalty</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>i6kh14</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -7075,24 +7075,24 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>#loyalty</t>
-        </is>
-      </c>
+      <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr">
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr">
         <is>
           <t>loyalty-learn-more</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>i6kh14</t>
+        </is>
+      </c>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
@@ -7126,15 +7126,15 @@
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>#loyalty</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>iawl5q</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -7146,24 +7146,24 @@
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>#loyalty</t>
-        </is>
-      </c>
+      <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr">
         <is>
           <t>gjs-t-button loyalty-sign-up</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>iawl5q</t>
+        </is>
+      </c>
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
@@ -7201,11 +7201,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -7220,17 +7216,21 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr">
         <is>
           <t>contact-preview-section</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
@@ -7268,11 +7268,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>i9emop</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -7287,17 +7283,21 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr">
         <is>
           <t>contact-container</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>i9emop</t>
+        </is>
+      </c>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
@@ -7335,11 +7335,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>i2l2av</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -7354,17 +7350,21 @@
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr">
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr">
         <is>
           <t>contact-card</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>i2l2av</t>
+        </is>
+      </c>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
@@ -7402,11 +7402,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>i30nth</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -7421,17 +7417,21 @@
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr">
         <is>
           <t>contact-block</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>i30nth</t>
+        </is>
+      </c>
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr"/>
@@ -7469,11 +7469,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>i1rzdi</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -7488,17 +7484,21 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr">
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr">
         <is>
           <t>contact-title</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>i1rzdi</t>
+        </is>
+      </c>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr"/>
@@ -7536,11 +7536,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>ixntar</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -7555,17 +7551,21 @@
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr">
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr">
         <is>
           <t>contact-text</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>ixntar</t>
+        </is>
+      </c>
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
@@ -7599,15 +7599,15 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>#map</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>ilphxq</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -7619,24 +7619,24 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>#map</t>
-        </is>
-      </c>
+      <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr">
         <is>
           <t>gjs-t-link contact-link</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
       <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>ilphxq</t>
+        </is>
+      </c>
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
@@ -7674,11 +7674,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>ibpfd8</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -7693,17 +7689,21 @@
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr">
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr">
         <is>
           <t>contact-block</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>ibpfd8</t>
+        </is>
+      </c>
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
@@ -7741,11 +7741,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>i7bwfw</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -7760,17 +7756,21 @@
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr">
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr">
         <is>
           <t>contact-title</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
       <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>i7bwfw</t>
+        </is>
+      </c>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
@@ -7808,11 +7808,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>ihnd3d</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -7827,17 +7823,21 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr">
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr">
         <is>
           <t>contact-text</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
       <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>ihnd3d</t>
+        </is>
+      </c>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
@@ -7875,11 +7875,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>idna99</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -7894,17 +7890,21 @@
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr">
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr">
         <is>
           <t>contact-block</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
       <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>idna99</t>
+        </is>
+      </c>
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
@@ -7942,11 +7942,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>ih8zp3</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -7961,17 +7957,21 @@
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr">
         <is>
           <t>contact-title</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
       <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>ih8zp3</t>
+        </is>
+      </c>
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
@@ -8009,11 +8009,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>iw4zis</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -8028,17 +8024,21 @@
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr">
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr">
         <is>
           <t>contact-text</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
       <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>iw4zis</t>
+        </is>
+      </c>
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
       <c r="AH109" t="inlineStr"/>
@@ -8076,11 +8076,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>ink2x9</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -8095,17 +8091,21 @@
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr">
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr">
         <is>
           <t>contact-actions</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
       <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>ink2x9</t>
+        </is>
+      </c>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
@@ -8139,15 +8139,15 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>ifqid7</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -8159,24 +8159,24 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr">
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr">
         <is>
           <t>gjs-t-button contact-action</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
       <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>ifqid7</t>
+        </is>
+      </c>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
@@ -8210,15 +8210,15 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>invxbk</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -8230,24 +8230,24 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr">
         <is>
           <t>contact-action</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
       <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>invxbk</t>
+        </is>
+      </c>
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
@@ -8285,11 +8285,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>i04oeo</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -8304,17 +8300,21 @@
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr">
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr">
         <is>
           <t>branch-highlights-section</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
       <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>i04oeo</t>
+        </is>
+      </c>
       <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="inlineStr"/>
       <c r="AH113" t="inlineStr"/>
@@ -8352,11 +8352,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>it0gjl</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
@@ -8371,17 +8367,21 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr">
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr">
         <is>
           <t>branch-highlights-container</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
       <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>it0gjl</t>
+        </is>
+      </c>
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
       <c r="AH114" t="inlineStr"/>
@@ -8419,11 +8419,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>io5hrf</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -8438,17 +8434,21 @@
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr">
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr">
         <is>
           <t>gjs-t-h2 branch-highlights-title</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
       <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>io5hrf</t>
+        </is>
+      </c>
       <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="inlineStr"/>
       <c r="AH115" t="inlineStr"/>
@@ -8486,11 +8486,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>i128bi</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -8505,17 +8501,21 @@
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr">
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr">
         <is>
           <t>branch-cards-grid</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
       <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>i128bi</t>
+        </is>
+      </c>
       <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr"/>
@@ -8553,11 +8553,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>ivh2qv</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -8572,17 +8568,21 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr">
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr">
         <is>
           <t>branch-card</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
       <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>ivh2qv</t>
+        </is>
+      </c>
       <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="inlineStr"/>
@@ -8620,49 +8620,49 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>ipr7uk</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>City Center Branch</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>images/home/abstract-branch.jpg</t>
+        </is>
+      </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>images/home/abstract-branch.jpg</t>
+          <t>branch-image</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
       <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>ipr7uk</t>
+        </is>
+      </c>
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr">
-        <is>
-          <t>City Center Branch</t>
-        </is>
-      </c>
+      <c r="AJ118" t="inlineStr"/>
       <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="inlineStr"/>
@@ -8695,11 +8695,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>ij1cg2</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
@@ -8714,17 +8710,21 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr">
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr">
         <is>
           <t>branch-content</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
       <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>ij1cg2</t>
+        </is>
+      </c>
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
@@ -8762,11 +8762,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>i4hipg</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
@@ -8781,17 +8777,21 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr">
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr">
         <is>
           <t>branch-header</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
       <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>i4hipg</t>
+        </is>
+      </c>
       <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="inlineStr"/>
       <c r="AH120" t="inlineStr"/>
@@ -8829,11 +8829,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>i4coap</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -8848,17 +8844,21 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr">
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr">
         <is>
           <t>branch-name</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
       <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>i4coap</t>
+        </is>
+      </c>
       <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="inlineStr"/>
       <c r="AH121" t="inlineStr"/>
@@ -8896,11 +8896,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>it5nxp</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -8915,17 +8911,21 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr">
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr">
         <is>
           <t>branch-tag</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
       <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>it5nxp</t>
+        </is>
+      </c>
       <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="inlineStr"/>
       <c r="AH122" t="inlineStr"/>
@@ -8963,11 +8963,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>ifoepi</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -8982,17 +8978,21 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr">
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr">
         <is>
           <t>branch-description</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
       <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>ifoepi</t>
+        </is>
+      </c>
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="inlineStr"/>
@@ -9030,11 +9030,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>i7fngg</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -9049,17 +9045,21 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr">
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr">
         <is>
           <t>branch-actions</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
       <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>i7fngg</t>
+        </is>
+      </c>
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
       <c r="AH124" t="inlineStr"/>
@@ -9093,15 +9093,15 @@
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>ic7s6q</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -9113,24 +9113,24 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr">
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr">
         <is>
           <t>gjs-t-link branch-order-link</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
       <c r="AD125" t="inlineStr"/>
-      <c r="AE125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>ic7s6q</t>
+        </is>
+      </c>
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="inlineStr"/>
@@ -9168,11 +9168,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>ied9oa</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
@@ -9187,17 +9183,21 @@
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr">
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr">
         <is>
           <t>branch-divider</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
       <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>ied9oa</t>
+        </is>
+      </c>
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="inlineStr"/>
       <c r="AH126" t="inlineStr"/>
@@ -9231,15 +9231,15 @@
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>iszcog</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -9251,24 +9251,24 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr">
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr">
         <is>
           <t>gjs-t-link branch-reserve-link</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
       <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>iszcog</t>
+        </is>
+      </c>
       <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="inlineStr"/>
       <c r="AH127" t="inlineStr"/>
@@ -9306,11 +9306,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>ieghyx</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -9325,17 +9321,21 @@
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr">
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr">
         <is>
           <t>branch-card</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
       <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>ieghyx</t>
+        </is>
+      </c>
       <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="inlineStr"/>
       <c r="AH128" t="inlineStr"/>
@@ -9373,49 +9373,49 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>ijdb3v</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Riverside Branch</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>images/home/reserve.jpg</t>
+        </is>
+      </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>images/home/reserve.jpg</t>
+          <t>branch-image</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
       <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>ijdb3v</t>
+        </is>
+      </c>
       <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="inlineStr"/>
       <c r="AH129" t="inlineStr"/>
       <c r="AI129" t="inlineStr"/>
-      <c r="AJ129" t="inlineStr">
-        <is>
-          <t>Riverside Branch</t>
-        </is>
-      </c>
+      <c r="AJ129" t="inlineStr"/>
       <c r="AK129" t="inlineStr"/>
       <c r="AL129" t="inlineStr"/>
       <c r="AM129" t="inlineStr"/>
@@ -9448,11 +9448,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>ijc9w1</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -9467,17 +9463,21 @@
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr">
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr">
         <is>
           <t>branch-content</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
       <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>ijc9w1</t>
+        </is>
+      </c>
       <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="inlineStr"/>
       <c r="AH130" t="inlineStr"/>
@@ -9515,11 +9515,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>inp499</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -9534,17 +9530,21 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr">
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr">
         <is>
           <t>branch-header</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
       <c r="AD131" t="inlineStr"/>
-      <c r="AE131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>inp499</t>
+        </is>
+      </c>
       <c r="AF131" t="inlineStr"/>
       <c r="AG131" t="inlineStr"/>
       <c r="AH131" t="inlineStr"/>
@@ -9582,11 +9582,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>i98m84</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -9601,17 +9597,21 @@
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr">
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr">
         <is>
           <t>branch-name</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
-      <c r="AE132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>i98m84</t>
+        </is>
+      </c>
       <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="inlineStr"/>
       <c r="AH132" t="inlineStr"/>
@@ -9649,11 +9649,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>ibbi2g</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -9668,17 +9664,21 @@
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr">
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr">
         <is>
           <t>branch-tag</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
       <c r="AD133" t="inlineStr"/>
-      <c r="AE133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>ibbi2g</t>
+        </is>
+      </c>
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
@@ -9716,11 +9716,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>i4sl8p</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -9735,17 +9731,21 @@
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr">
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr">
         <is>
           <t>branch-description</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
       <c r="AD134" t="inlineStr"/>
-      <c r="AE134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>i4sl8p</t>
+        </is>
+      </c>
       <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="inlineStr"/>
       <c r="AH134" t="inlineStr"/>
@@ -9783,11 +9783,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>ips5kg</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -9802,17 +9798,21 @@
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr">
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr">
         <is>
           <t>branch-actions</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
       <c r="AD135" t="inlineStr"/>
-      <c r="AE135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>ips5kg</t>
+        </is>
+      </c>
       <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="inlineStr"/>
       <c r="AH135" t="inlineStr"/>
@@ -9846,15 +9846,15 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>i9428q</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -9866,24 +9866,24 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr">
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr">
         <is>
           <t>gjs-t-link branch-order-link</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
       <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>i9428q</t>
+        </is>
+      </c>
       <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="inlineStr"/>
       <c r="AH136" t="inlineStr"/>
@@ -9921,11 +9921,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>ij9d3l</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -9940,17 +9936,21 @@
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr">
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr">
         <is>
           <t>branch-divider</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>ij9d3l</t>
+        </is>
+      </c>
       <c r="AF137" t="inlineStr"/>
       <c r="AG137" t="inlineStr"/>
       <c r="AH137" t="inlineStr"/>
@@ -9984,15 +9984,15 @@
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>isoaxo</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -10004,24 +10004,24 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr">
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr">
         <is>
           <t>gjs-t-link branch-reserve-link</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
       <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>isoaxo</t>
+        </is>
+      </c>
       <c r="AF138" t="inlineStr"/>
       <c r="AG138" t="inlineStr"/>
       <c r="AH138" t="inlineStr"/>
@@ -10059,11 +10059,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>i6k2me</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -10078,17 +10074,21 @@
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr">
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr">
         <is>
           <t>branch-card</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>i6k2me</t>
+        </is>
+      </c>
       <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="inlineStr"/>
       <c r="AH139" t="inlineStr"/>
@@ -10126,49 +10126,49 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>iv94co</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>North Hills Branch</t>
+        </is>
+      </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>images/home/reserve-2.jpg</t>
+        </is>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr">
-        <is>
-          <t>branch-image</t>
-        </is>
-      </c>
+      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>images/home/reserve-2.jpg</t>
+          <t>branch-image</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
       <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>iv94co</t>
+        </is>
+      </c>
       <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="inlineStr"/>
       <c r="AH140" t="inlineStr"/>
       <c r="AI140" t="inlineStr"/>
-      <c r="AJ140" t="inlineStr">
-        <is>
-          <t>North Hills Branch</t>
-        </is>
-      </c>
+      <c r="AJ140" t="inlineStr"/>
       <c r="AK140" t="inlineStr"/>
       <c r="AL140" t="inlineStr"/>
       <c r="AM140" t="inlineStr"/>
@@ -10201,11 +10201,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>iv5xt7</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -10220,17 +10216,21 @@
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr">
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr">
         <is>
           <t>branch-content</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>iv5xt7</t>
+        </is>
+      </c>
       <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="inlineStr"/>
       <c r="AH141" t="inlineStr"/>
@@ -10268,11 +10268,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>ir9ett</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -10287,17 +10283,21 @@
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr">
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr">
         <is>
           <t>branch-header</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
       <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>ir9ett</t>
+        </is>
+      </c>
       <c r="AF142" t="inlineStr"/>
       <c r="AG142" t="inlineStr"/>
       <c r="AH142" t="inlineStr"/>
@@ -10335,11 +10335,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>ibjrmg</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -10354,17 +10350,21 @@
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr">
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr">
         <is>
           <t>branch-name</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
       <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>ibjrmg</t>
+        </is>
+      </c>
       <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="inlineStr"/>
       <c r="AH143" t="inlineStr"/>
@@ -10402,11 +10402,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>iy6ts8</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
@@ -10421,17 +10417,21 @@
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr">
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr">
         <is>
           <t>branch-tag</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>iy6ts8</t>
+        </is>
+      </c>
       <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="inlineStr"/>
       <c r="AH144" t="inlineStr"/>
@@ -10469,11 +10469,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>i0rc58</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -10488,17 +10484,21 @@
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr">
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr">
         <is>
           <t>branch-description</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
-      <c r="AE145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>i0rc58</t>
+        </is>
+      </c>
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
@@ -10536,11 +10536,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>ik4nla</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -10555,17 +10551,21 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr">
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr">
         <is>
           <t>branch-actions</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
       <c r="AD146" t="inlineStr"/>
-      <c r="AE146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>ik4nla</t>
+        </is>
+      </c>
       <c r="AF146" t="inlineStr"/>
       <c r="AG146" t="inlineStr"/>
       <c r="AH146" t="inlineStr"/>
@@ -10599,15 +10599,15 @@
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>iyalid</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -10619,24 +10619,24 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr">
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr">
         <is>
           <t>gjs-t-link branch-order-link</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
       <c r="AD147" t="inlineStr"/>
-      <c r="AE147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>iyalid</t>
+        </is>
+      </c>
       <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="inlineStr"/>
       <c r="AH147" t="inlineStr"/>
@@ -10674,11 +10674,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>i0c1ki</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -10693,17 +10689,21 @@
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr">
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr">
         <is>
           <t>branch-divider</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr"/>
-      <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
       <c r="AD148" t="inlineStr"/>
-      <c r="AE148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>i0c1ki</t>
+        </is>
+      </c>
       <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="inlineStr"/>
       <c r="AH148" t="inlineStr"/>
@@ -10737,15 +10737,15 @@
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>ija2me</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -10757,24 +10757,24 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr">
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr">
         <is>
           <t>gjs-t-link branch-reserve-link</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
       <c r="AD149" t="inlineStr"/>
-      <c r="AE149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>ija2me</t>
+        </is>
+      </c>
       <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="inlineStr"/>
       <c r="AH149" t="inlineStr"/>
@@ -10812,11 +10812,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>ikdb8u</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -10831,17 +10827,21 @@
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr">
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr">
         <is>
           <t>footer</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
       <c r="AD150" t="inlineStr"/>
-      <c r="AE150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>ikdb8u</t>
+        </is>
+      </c>
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
       <c r="AH150" t="inlineStr"/>
@@ -10879,11 +10879,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>idqqkg</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -10898,17 +10894,21 @@
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr">
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr">
         <is>
           <t>footer-container</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
       <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>idqqkg</t>
+        </is>
+      </c>
       <c r="AF151" t="inlineStr"/>
       <c r="AG151" t="inlineStr"/>
       <c r="AH151" t="inlineStr"/>
@@ -10946,11 +10946,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>isenbc</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -10965,17 +10961,21 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr">
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr">
         <is>
           <t>footer-brand-block</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>isenbc</t>
+        </is>
+      </c>
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
@@ -11013,11 +11013,7 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>ixhycm</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -11032,17 +11028,21 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr">
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr">
         <is>
           <t>footer-brand-row</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
       <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>ixhycm</t>
+        </is>
+      </c>
       <c r="AF153" t="inlineStr"/>
       <c r="AG153" t="inlineStr"/>
       <c r="AH153" t="inlineStr"/>
@@ -11080,11 +11080,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>i73dsb</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -11099,17 +11095,21 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr">
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr">
         <is>
           <t>footer-brand-mark</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
       <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>i73dsb</t>
+        </is>
+      </c>
       <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="inlineStr"/>
       <c r="AH154" t="inlineStr"/>
@@ -11147,11 +11147,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>i36gam</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -11166,17 +11162,21 @@
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr">
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr">
         <is>
           <t>footer-brand-name</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
       <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>i36gam</t>
+        </is>
+      </c>
       <c r="AF155" t="inlineStr"/>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="inlineStr"/>
@@ -11214,11 +11214,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>i1ixnr</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -11233,17 +11229,21 @@
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr">
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr">
         <is>
           <t>footer-brand-text</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
       <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>i1ixnr</t>
+        </is>
+      </c>
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="inlineStr"/>
@@ -11281,11 +11281,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>ih2ufx</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -11300,17 +11296,21 @@
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr">
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr">
         <is>
           <t>footer-socials</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
       <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>ih2ufx</t>
+        </is>
+      </c>
       <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="inlineStr"/>
       <c r="AH157" t="inlineStr"/>
@@ -11344,15 +11344,15 @@
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>i985df</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -11364,24 +11364,24 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr">
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr">
         <is>
           <t>gjs-t-link footer-social-link</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
       <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>i985df</t>
+        </is>
+      </c>
       <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="inlineStr"/>
       <c r="AH158" t="inlineStr"/>
@@ -11419,45 +11419,45 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>iem4ub</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>icons/home/instagram.svg</t>
+        </is>
+      </c>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr">
-        <is>
-          <t>icons/home/instagram.svg</t>
-        </is>
-      </c>
+      <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
       <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>iem4ub</t>
+        </is>
+      </c>
       <c r="AF159" t="inlineStr"/>
       <c r="AG159" t="inlineStr"/>
       <c r="AH159" t="inlineStr"/>
       <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
+      <c r="AJ159" t="inlineStr"/>
       <c r="AK159" t="inlineStr"/>
       <c r="AL159" t="inlineStr"/>
       <c r="AM159" t="inlineStr"/>
@@ -11486,15 +11486,15 @@
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>i806gl</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -11506,24 +11506,24 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr">
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr">
         <is>
           <t>gjs-t-link footer-social-link</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
       <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>i806gl</t>
+        </is>
+      </c>
       <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="inlineStr"/>
       <c r="AH160" t="inlineStr"/>
@@ -11561,49 +11561,49 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>izpyjx</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>icons/home/facebook.svg</t>
+        </is>
+      </c>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr">
-        <is>
-          <t>footer-social-icon</t>
-        </is>
-      </c>
+      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>icons/home/facebook.svg</t>
+          <t>footer-social-icon</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
       <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>izpyjx</t>
+        </is>
+      </c>
       <c r="AF161" t="inlineStr"/>
       <c r="AG161" t="inlineStr"/>
       <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="inlineStr"/>
-      <c r="AJ161" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
+      <c r="AJ161" t="inlineStr"/>
       <c r="AK161" t="inlineStr"/>
       <c r="AL161" t="inlineStr"/>
       <c r="AM161" t="inlineStr"/>
@@ -11632,15 +11632,15 @@
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>i03u9w</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
@@ -11652,24 +11652,24 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr">
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr">
         <is>
           <t>gjs-t-link footer-social-link</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
       <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>i03u9w</t>
+        </is>
+      </c>
       <c r="AF162" t="inlineStr"/>
       <c r="AG162" t="inlineStr"/>
       <c r="AH162" t="inlineStr"/>
@@ -11707,49 +11707,49 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>iv1dkv</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>icons/home/twitter.svg</t>
+        </is>
+      </c>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr">
-        <is>
-          <t>footer-social-icon</t>
-        </is>
-      </c>
+      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr"/>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>icons/home/twitter.svg</t>
+          <t>footer-social-icon</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
       <c r="AD163" t="inlineStr"/>
-      <c r="AE163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>iv1dkv</t>
+        </is>
+      </c>
       <c r="AF163" t="inlineStr"/>
       <c r="AG163" t="inlineStr"/>
       <c r="AH163" t="inlineStr"/>
       <c r="AI163" t="inlineStr"/>
-      <c r="AJ163" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+      <c r="AJ163" t="inlineStr"/>
       <c r="AK163" t="inlineStr"/>
       <c r="AL163" t="inlineStr"/>
       <c r="AM163" t="inlineStr"/>
@@ -11782,11 +11782,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>ijehoi</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -11801,17 +11797,21 @@
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr">
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr">
         <is>
           <t>footer-links-block</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>ijehoi</t>
+        </is>
+      </c>
       <c r="AF164" t="inlineStr"/>
       <c r="AG164" t="inlineStr"/>
       <c r="AH164" t="inlineStr"/>
@@ -11849,11 +11849,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>i86uba</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -11868,17 +11864,21 @@
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr">
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr">
         <is>
           <t>footer-links-title</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr"/>
-      <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
       <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>i86uba</t>
+        </is>
+      </c>
       <c r="AF165" t="inlineStr"/>
       <c r="AG165" t="inlineStr"/>
       <c r="AH165" t="inlineStr"/>
@@ -11912,15 +11912,15 @@
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>./menu.html</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>ihtuj1</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -11932,24 +11932,24 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr">
-        <is>
-          <t>./menu.html</t>
-        </is>
-      </c>
+      <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr">
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr">
         <is>
           <t>gjs-t-link footer-link-item</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr"/>
-      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
       <c r="AD166" t="inlineStr"/>
-      <c r="AE166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>ihtuj1</t>
+        </is>
+      </c>
       <c r="AF166" t="inlineStr"/>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
@@ -11983,15 +11983,15 @@
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>./reservations.html</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>ie8a7s</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -12003,24 +12003,24 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr">
-        <is>
-          <t>./reservations.html</t>
-        </is>
-      </c>
+      <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr">
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr">
         <is>
           <t>gjs-t-link footer-link-item</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr"/>
-      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
       <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>ie8a7s</t>
+        </is>
+      </c>
       <c r="AF167" t="inlineStr"/>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="inlineStr"/>
@@ -12054,15 +12054,15 @@
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>./cart-checkout.html</t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>itc4c8</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -12074,24 +12074,24 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr">
-        <is>
-          <t>./cart-checkout.html</t>
-        </is>
-      </c>
+      <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr">
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr">
         <is>
           <t>gjs-t-link footer-link-item</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr"/>
-      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
       <c r="AD168" t="inlineStr"/>
-      <c r="AE168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>itc4c8</t>
+        </is>
+      </c>
       <c r="AF168" t="inlineStr"/>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="inlineStr"/>
@@ -12125,15 +12125,15 @@
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>./order-confirmation-status.html</t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>ias5w2</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
@@ -12145,24 +12145,24 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>./order-confirmation-status.html</t>
-        </is>
-      </c>
+      <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr">
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr">
         <is>
           <t>gjs-t-link footer-link-item</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr"/>
-      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
-      <c r="AE169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>ias5w2</t>
+        </is>
+      </c>
       <c r="AF169" t="inlineStr"/>
       <c r="AG169" t="inlineStr"/>
       <c r="AH169" t="inlineStr"/>
@@ -12200,11 +12200,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>ied1dh</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -12219,17 +12215,21 @@
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr">
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr">
         <is>
           <t>footer-contact-block</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr"/>
-      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
-      <c r="AE170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>ied1dh</t>
+        </is>
+      </c>
       <c r="AF170" t="inlineStr"/>
       <c r="AG170" t="inlineStr"/>
       <c r="AH170" t="inlineStr"/>
@@ -12267,11 +12267,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>iu0djf</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
@@ -12286,17 +12282,21 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr">
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr">
         <is>
           <t>footer-contact-title</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr"/>
-      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>iu0djf</t>
+        </is>
+      </c>
       <c r="AF171" t="inlineStr"/>
       <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr"/>
@@ -12334,11 +12334,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>iz1j5m</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -12353,17 +12349,21 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr">
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr">
         <is>
           <t>footer-contact-item</t>
         </is>
       </c>
-      <c r="Z172" t="inlineStr"/>
-      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
-      <c r="AE172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>iz1j5m</t>
+        </is>
+      </c>
       <c r="AF172" t="inlineStr"/>
       <c r="AG172" t="inlineStr"/>
       <c r="AH172" t="inlineStr"/>
@@ -12401,11 +12401,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>iwz7np</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -12420,17 +12416,21 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr">
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr">
         <is>
           <t>footer-contact-item</t>
         </is>
       </c>
-      <c r="Z173" t="inlineStr"/>
-      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="inlineStr"/>
-      <c r="AE173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>iwz7np</t>
+        </is>
+      </c>
       <c r="AF173" t="inlineStr"/>
       <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr"/>
@@ -12468,11 +12468,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>ig12y7</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -12487,17 +12483,21 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr">
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr">
         <is>
           <t>footer-contact-item</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr"/>
-      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
       <c r="AD174" t="inlineStr"/>
-      <c r="AE174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>ig12y7</t>
+        </is>
+      </c>
       <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="inlineStr"/>
       <c r="AH174" t="inlineStr"/>
@@ -12535,11 +12535,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>iakbm7</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -12554,17 +12550,21 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr">
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr">
         <is>
           <t>footer-cta-block</t>
         </is>
       </c>
-      <c r="Z175" t="inlineStr"/>
-      <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
       <c r="AD175" t="inlineStr"/>
-      <c r="AE175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>iakbm7</t>
+        </is>
+      </c>
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
@@ -12602,11 +12602,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>ivc5de</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -12621,17 +12617,21 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr">
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr">
         <is>
           <t>footer-cta-title</t>
         </is>
       </c>
-      <c r="Z176" t="inlineStr"/>
-      <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
       <c r="AC176" t="inlineStr"/>
       <c r="AD176" t="inlineStr"/>
-      <c r="AE176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>ivc5de</t>
+        </is>
+      </c>
       <c r="AF176" t="inlineStr"/>
       <c r="AG176" t="inlineStr"/>
       <c r="AH176" t="inlineStr"/>
@@ -12669,11 +12669,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>iqxk1l</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -12688,17 +12684,21 @@
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr">
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr">
         <is>
           <t>footer-input-group</t>
         </is>
       </c>
-      <c r="Z177" t="inlineStr"/>
-      <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr"/>
       <c r="AC177" t="inlineStr"/>
       <c r="AD177" t="inlineStr"/>
-      <c r="AE177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>iqxk1l</t>
+        </is>
+      </c>
       <c r="AF177" t="inlineStr"/>
       <c r="AG177" t="inlineStr"/>
       <c r="AH177" t="inlineStr"/>
@@ -12731,16 +12731,16 @@
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Enter your email</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>igtwoh</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -12753,23 +12753,27 @@
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr">
-        <is>
-          <t>Enter your email</t>
-        </is>
-      </c>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr">
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr">
         <is>
           <t>gjs-t-border footer-email-input</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr"/>
-      <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
       <c r="AC178" t="inlineStr"/>
       <c r="AD178" t="inlineStr"/>
-      <c r="AE178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>igtwoh</t>
+        </is>
+      </c>
       <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="inlineStr"/>
       <c r="AH178" t="inlineStr"/>
@@ -12779,11 +12783,7 @@
       <c r="AL178" t="inlineStr"/>
       <c r="AM178" t="inlineStr"/>
       <c r="AN178" t="inlineStr"/>
-      <c r="AO178" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
+      <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="n">
         <v>263</v>
@@ -12811,11 +12811,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>i4gekk</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -12829,18 +12825,26 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr">
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>button</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr">
         <is>
           <t>gjs-t-button footer-subscribe-button</t>
         </is>
       </c>
-      <c r="Z179" t="inlineStr"/>
-      <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
       <c r="AC179" t="inlineStr"/>
       <c r="AD179" t="inlineStr"/>
-      <c r="AE179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>i4gekk</t>
+        </is>
+      </c>
       <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="inlineStr"/>
       <c r="AH179" t="inlineStr"/>
@@ -12850,11 +12854,7 @@
       <c r="AL179" t="inlineStr"/>
       <c r="AM179" t="inlineStr"/>
       <c r="AN179" t="inlineStr"/>
-      <c r="AO179" t="inlineStr">
-        <is>
-          <t>button</t>
-        </is>
-      </c>
+      <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="n">
         <v>264</v>
@@ -12882,11 +12882,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>in468z</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -12901,17 +12897,21 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr">
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr">
         <is>
           <t>footer-consent-text</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
       <c r="AC180" t="inlineStr"/>
       <c r="AD180" t="inlineStr"/>
-      <c r="AE180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>in468z</t>
+        </is>
+      </c>
       <c r="AF180" t="inlineStr"/>
       <c r="AG180" t="inlineStr"/>
       <c r="AH180" t="inlineStr"/>
@@ -12949,11 +12949,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>intjx4</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
@@ -12968,17 +12964,21 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr">
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr">
         <is>
           <t>footer-bottom</t>
         </is>
       </c>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
       <c r="AC181" t="inlineStr"/>
       <c r="AD181" t="inlineStr"/>
-      <c r="AE181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>intjx4</t>
+        </is>
+      </c>
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
@@ -13016,11 +13016,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>i9rm0j</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
@@ -13035,17 +13031,21 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr">
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr">
         <is>
           <t>footer-bottom-container</t>
         </is>
       </c>
-      <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
       <c r="AC182" t="inlineStr"/>
       <c r="AD182" t="inlineStr"/>
-      <c r="AE182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>i9rm0j</t>
+        </is>
+      </c>
       <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="inlineStr"/>
       <c r="AH182" t="inlineStr"/>
@@ -13083,11 +13083,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>ixmut1</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -13102,17 +13098,21 @@
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr">
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr">
         <is>
           <t>footer-copyright</t>
         </is>
       </c>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr"/>
       <c r="AC183" t="inlineStr"/>
       <c r="AD183" t="inlineStr"/>
-      <c r="AE183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>ixmut1</t>
+        </is>
+      </c>
       <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="inlineStr"/>
       <c r="AH183" t="inlineStr"/>
@@ -13150,11 +13150,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>i0spms</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -13169,17 +13165,21 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr">
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr">
         <is>
           <t>footer-legal-links</t>
         </is>
       </c>
-      <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="inlineStr"/>
       <c r="AC184" t="inlineStr"/>
       <c r="AD184" t="inlineStr"/>
-      <c r="AE184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>i0spms</t>
+        </is>
+      </c>
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
@@ -13213,15 +13213,15 @@
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>iicups</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
@@ -13233,24 +13233,24 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr">
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr">
         <is>
           <t>gjs-t-link footer-legal-link</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr"/>
-      <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr"/>
       <c r="AC185" t="inlineStr"/>
       <c r="AD185" t="inlineStr"/>
-      <c r="AE185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>iicups</t>
+        </is>
+      </c>
       <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="inlineStr"/>
       <c r="AH185" t="inlineStr"/>
@@ -13284,15 +13284,15 @@
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>it40gk</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -13304,24 +13304,24 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
+      <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr">
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr">
         <is>
           <t>gjs-t-link footer-legal-link</t>
         </is>
       </c>
-      <c r="Z186" t="inlineStr"/>
-      <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr"/>
       <c r="AC186" t="inlineStr"/>
       <c r="AD186" t="inlineStr"/>
-      <c r="AE186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>it40gk</t>
+        </is>
+      </c>
       <c r="AF186" t="inlineStr"/>
       <c r="AG186" t="inlineStr"/>
       <c r="AH186" t="inlineStr"/>
